--- a/docs/HansonsLogarithmicScoringRule_v5.xlsx
+++ b/docs/HansonsLogarithmicScoringRule_v5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>Final</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Targeting Calculator</t>
   </si>
   <si>
-    <t>From t=3 to t=4, the probability of column=0 has remaned the same, but the marginal probabilities have changed.</t>
-  </si>
-  <si>
     <t>Note b defined as 1 for this line.</t>
   </si>
   <si>
@@ -272,6 +269,15 @@
   </si>
   <si>
     <t>https://en.bitcoin.it/wiki/Contracts#Example_7:_Rapidly-adjusted_.28micro.29payments_to_a_pre-determined_party</t>
+  </si>
+  <si>
+    <t>P(b|a)</t>
+  </si>
+  <si>
+    <t>From t=3 to t=4, the probability of b (column=1) remaned the same, but the marginal probability of experiencing b changed.</t>
+  </si>
+  <si>
+    <t>From t=4 to t=5, the probability of b (column=1) changed from 43 to 34, but the marginal probability of experiencing b remained the same.</t>
   </si>
 </sst>
 </file>
@@ -324,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +397,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -714,32 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -750,19 +742,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -776,41 +755,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,6 +797,84 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -867,7 +889,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -989,9 +1011,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1018,7 +1037,6 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1061,12 +1079,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1077,12 +1090,11 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,21 +1104,13 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1118,11 +1122,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1257,11 +1276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108037632"/>
-        <c:axId val="107831872"/>
+        <c:axId val="124935680"/>
+        <c:axId val="125239296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108037632"/>
+        <c:axId val="124935680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107831872"/>
+        <c:crossAx val="125239296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107831872"/>
+        <c:axId val="125239296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108037632"/>
+        <c:crossAx val="124935680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1524,11 +1543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108039168"/>
-        <c:axId val="107834752"/>
+        <c:axId val="124974080"/>
+        <c:axId val="125242176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108039168"/>
+        <c:axId val="124974080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107834752"/>
+        <c:crossAx val="125242176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107834752"/>
+        <c:axId val="125242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,13 +1575,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108039168"/>
+        <c:crossAx val="124974080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1609,6 +1629,147 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="5755821"/>
+          <a:ext cx="1782536" cy="1959429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2490107" y="5973536"/>
+          <a:ext cx="1768929" cy="2898321"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="6164036"/>
+          <a:ext cx="1809750" cy="4313464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1938,16 +2099,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP50"/>
+  <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="10" width="11.42578125" style="76" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" style="75" customWidth="1"/>
+    <col min="10" max="10" width="12" style="75" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" customWidth="1"/>
@@ -1968,16 +2131,16 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="75">
         <f>COUNTA(E7:F7)</f>
         <v>2</v>
       </c>
@@ -1993,14 +2156,14 @@
       <c r="C4"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" s="137">
+      <c r="N4" s="130">
         <v>1</v>
       </c>
       <c r="O4" t="s">
@@ -2014,12 +2177,12 @@
     <row r="5" spans="3:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -2031,20 +2194,20 @@
       <c r="S5"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="3:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6"/>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111" t="s">
+      <c r="F6" s="109"/>
+      <c r="G6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="110" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="110" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="43"/>
@@ -2054,49 +2217,51 @@
     </row>
     <row r="7" spans="3:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="74"/>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="84">
+        <v>0</v>
+      </c>
+      <c r="J7" s="85"/>
       <c r="R7"/>
     </row>
     <row r="8" spans="3:20" s="8" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D8" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="87">
-        <v>0</v>
-      </c>
-      <c r="F8" s="88">
-        <v>0</v>
-      </c>
-      <c r="G8" s="93">
+      <c r="E8" s="86">
+        <v>0</v>
+      </c>
+      <c r="F8" s="87">
+        <v>0</v>
+      </c>
+      <c r="G8" s="92">
         <f>EXP(E8/$N$4)/(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="140">
+      <c r="H8" s="133">
         <f t="shared" ref="G8:H14" si="0">EXP(F8/$N$4)/(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
         <v>0.5</v>
       </c>
-      <c r="I8" s="143">
+      <c r="I8" s="136">
         <f>$N$4*LN(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
         <v>0.69314718055994529</v>
       </c>
-      <c r="J8" s="89">
-        <f>(I8-0)</f>
+      <c r="J8" s="88">
+        <f>(I8-I7)</f>
         <v>0.69314718055994529</v>
       </c>
       <c r="R8"/>
@@ -2105,25 +2270,25 @@
       <c r="D9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="89">
         <v>1</v>
       </c>
-      <c r="F9" s="84">
-        <v>0</v>
-      </c>
-      <c r="G9" s="91">
+      <c r="F9" s="83">
+        <v>0</v>
+      </c>
+      <c r="G9" s="90">
         <f t="shared" si="0"/>
         <v>0.7310585786300049</v>
       </c>
-      <c r="H9" s="141">
+      <c r="H9" s="134">
         <f t="shared" si="0"/>
         <v>0.2689414213699951</v>
       </c>
-      <c r="I9" s="144">
+      <c r="I9" s="137">
         <f t="shared" ref="I9:I12" si="1">$N$4*LN(EXP($F9/$N$4)+EXP($E9/$N$4))</f>
         <v>1.3132616875182228</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="91">
         <f>(I9-I8)</f>
         <v>0.62011450695827752</v>
       </c>
@@ -2136,67 +2301,67 @@
       <c r="D10" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="142">
         <f>L10</f>
         <v>1.0986122886681098</v>
       </c>
-      <c r="F10" s="84">
-        <v>0</v>
-      </c>
-      <c r="G10" s="147">
+      <c r="F10" s="83">
+        <v>0</v>
+      </c>
+      <c r="G10" s="139">
         <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="H10" s="141">
+      <c r="H10" s="134">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="I10" s="144">
+      <c r="I10" s="137">
         <f t="shared" si="1"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="91">
         <f t="shared" ref="J10:J13" si="2">(I10-I9)</f>
         <v>7.3032673601667764E-2</v>
       </c>
-      <c r="L10" s="149">
-        <f>N4*LN(M10/(1-M10))+F10</f>
+      <c r="L10" s="141">
+        <f>N4*LN(L11/(1-L11))+F10</f>
         <v>1.0986122886681098</v>
       </c>
-      <c r="M10" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="N10" s="8" t="b">
-        <f>M10=G10</f>
-        <v>1</v>
-      </c>
       <c r="R10"/>
     </row>
-    <row r="11" spans="3:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="89">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="83">
         <v>1</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="90">
         <f t="shared" si="0"/>
         <v>0.76852478349901765</v>
       </c>
-      <c r="H11" s="141">
+      <c r="H11" s="134">
         <f t="shared" si="0"/>
         <v>0.23147521650098232</v>
       </c>
-      <c r="I11" s="144">
+      <c r="I11" s="137">
         <f t="shared" si="1"/>
         <v>2.4632824673380314</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="91">
         <f t="shared" si="2"/>
         <v>1.0769881062181408</v>
+      </c>
+      <c r="L11" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="8" t="b">
+        <f>L11=G10</f>
+        <v>1</v>
       </c>
       <c r="R11"/>
     </row>
@@ -2204,25 +2369,25 @@
       <c r="D12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="89">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="83">
         <v>4</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="90">
         <f t="shared" si="0"/>
         <v>0.75026010559511758</v>
       </c>
-      <c r="H12" s="141">
+      <c r="H12" s="134">
         <f t="shared" si="0"/>
         <v>0.24973989440488245</v>
       </c>
-      <c r="I12" s="144">
+      <c r="I12" s="137">
         <f t="shared" si="1"/>
         <v>5.3873353251154308</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="91">
         <f t="shared" si="2"/>
         <v>2.9240528577773994</v>
       </c>
@@ -2233,25 +2398,25 @@
       <c r="D13" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="89">
         <v>11</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="83">
         <v>1</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="90">
         <f t="shared" si="0"/>
         <v>0.99995460213129761</v>
       </c>
-      <c r="H13" s="141">
+      <c r="H13" s="134">
         <f t="shared" si="0"/>
         <v>4.5397868702434395E-5</v>
       </c>
-      <c r="I13" s="144">
+      <c r="I13" s="137">
         <f>$N$4*LN(EXP($F13/$N$4)+EXP($E13/$N$4))</f>
         <v>11.000045398899216</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J13" s="91">
         <f t="shared" si="2"/>
         <v>5.6127100737837852</v>
       </c>
@@ -2261,25 +2426,25 @@
       <c r="D14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="81">
         <v>10</v>
       </c>
-      <c r="F14" s="83">
-        <v>0</v>
-      </c>
-      <c r="G14" s="93">
+      <c r="F14" s="82">
+        <v>0</v>
+      </c>
+      <c r="G14" s="172">
         <f t="shared" si="0"/>
         <v>0.99995460213129761</v>
       </c>
-      <c r="H14" s="140">
+      <c r="H14" s="173">
         <f t="shared" si="0"/>
         <v>4.5397868702434395E-5</v>
       </c>
-      <c r="I14" s="145">
+      <c r="I14" s="174">
         <f>$N$4*LN(EXP($F14/$N$4)+EXP($E14/$N$4))</f>
         <v>10.000045398899218</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="175">
         <f>(I14-I13)</f>
         <v>-0.99999999999999822</v>
       </c>
@@ -2289,27 +2454,27 @@
       <c r="D15" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="93">
         <f>E14</f>
         <v>10</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="94">
         <f t="shared" ref="F15" si="3">F14</f>
         <v>0</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="95">
         <f>EXP(E15)/(EXP($F15)+EXP($E15))</f>
         <v>0.99995460213129761</v>
       </c>
-      <c r="H15" s="142">
+      <c r="H15" s="135">
         <f>EXP(F15)/(EXP($F15)+EXP($E15))</f>
         <v>4.5397868702434395E-5</v>
       </c>
-      <c r="I15" s="146">
+      <c r="I15" s="138">
         <f>$N$4*LN(EXP($F15/$N$4)+EXP($E15/$N$4))</f>
         <v>10.000045398899218</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="96">
         <f>SUM(J8:J14)</f>
         <v>10.000045398899218</v>
       </c>
@@ -2318,19 +2483,21 @@
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="3:20" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="99">
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="171">
+        <v>0</v>
+      </c>
+      <c r="J16" s="97">
         <f>J15-(SUMPRODUCT(G15:H15,E15:F15))</f>
         <v>4.9937758624096773E-4</v>
       </c>
@@ -2346,16 +2513,16 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="101"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
     </row>
     <row r="18" spans="2:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -2382,16 +2549,16 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="75">
         <f>COUNTA(E25:H25)</f>
         <v>4</v>
       </c>
@@ -2407,37 +2574,37 @@
       <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="137">
+      <c r="N22" s="130">
         <v>3.5</v>
       </c>
       <c r="O22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="26" t="s">
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="25" t="s">
         <v>57</v>
       </c>
       <c r="O24" s="43"/>
@@ -2470,35 +2637,37 @@
     </row>
     <row r="25" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="74"/>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="114" t="s">
+      <c r="J25" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="115" t="s">
+      <c r="K25" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="116" t="s">
+      <c r="L25" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="136"/>
-      <c r="N25" s="78"/>
+      <c r="M25" s="84">
+        <v>0</v>
+      </c>
+      <c r="N25" s="77"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="R25" s="8"/>
@@ -2532,39 +2701,39 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="87">
-        <v>0</v>
-      </c>
-      <c r="F26" s="104">
-        <v>0</v>
-      </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
-      <c r="H26" s="105">
-        <v>0</v>
-      </c>
-      <c r="I26" s="117">
+      <c r="E26" s="86">
+        <v>0</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="87">
+        <v>0</v>
+      </c>
+      <c r="H26" s="103">
+        <v>0</v>
+      </c>
+      <c r="I26" s="115">
         <f>EXP(E26/$N$22)/(EXP($E26/$N$22)+EXP($F26/$N$22)+EXP($G26/$N$22)+EXP($H26/$N$22))</f>
         <v>0.25</v>
       </c>
-      <c r="J26" s="118">
+      <c r="J26" s="116">
         <f t="shared" ref="J26:L32" si="4">EXP(F26/$N$22)/(EXP($E26/$N$22)+EXP($F26/$N$22)+EXP($G26/$N$22)+EXP($H26/$N$22))</f>
         <v>0.25</v>
       </c>
-      <c r="K26" s="119">
+      <c r="K26" s="117">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="L26" s="120">
+      <c r="L26" s="118">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="M26" s="133">
+      <c r="M26" s="136">
         <f>$N$22*LN(EXP($E26/$N$22)+EXP($F26/$N$22)+EXP($G26/$N$22)+EXP($H26/$N$22))</f>
         <v>4.8520302639196169</v>
       </c>
-      <c r="N26" s="129">
+      <c r="N26" s="127">
         <f>(M26-0)</f>
         <v>4.8520302639196169</v>
       </c>
@@ -2597,44 +2766,45 @@
       <c r="AP26" s="38"/>
     </row>
     <row r="27" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="89">
         <v>1</v>
       </c>
-      <c r="F27" s="106">
-        <v>0</v>
-      </c>
-      <c r="G27" s="84">
-        <v>0</v>
-      </c>
-      <c r="H27" s="107">
-        <v>0</v>
-      </c>
-      <c r="I27" s="121">
-        <f t="shared" ref="I27:I31" si="5">EXP(E27/$N$22)/(EXP($E27/$N$22)+EXP($F27/$N$22)+EXP($G27/$N$22)+EXP($H27/$N$22))</f>
+      <c r="F27" s="104">
+        <v>0</v>
+      </c>
+      <c r="G27" s="83">
+        <v>0</v>
+      </c>
+      <c r="H27" s="105">
+        <v>0</v>
+      </c>
+      <c r="I27" s="119">
+        <f>EXP(E27/$N$22)/(EXP($E27/$N$22)+EXP($F27/$N$22)+EXP($G27/$N$22)+EXP($H27/$N$22))</f>
         <v>0.30727329288510813</v>
       </c>
-      <c r="J27" s="122">
+      <c r="J27" s="120">
         <f t="shared" si="4"/>
         <v>0.23090890237163061</v>
       </c>
-      <c r="K27" s="123">
+      <c r="K27" s="121">
         <f t="shared" si="4"/>
         <v>0.23090890237163061</v>
       </c>
-      <c r="L27" s="124">
+      <c r="L27" s="122">
         <f t="shared" si="4"/>
         <v>0.23090890237163061</v>
       </c>
-      <c r="M27" s="134">
+      <c r="M27" s="137">
         <f>$N$22*LN(EXP($E27/$N$22)+EXP($F27/$N$22)+EXP($G27/$N$22)+EXP($H27/$N$22))</f>
         <v>5.1300620289417482</v>
       </c>
-      <c r="N27" s="130">
-        <f t="shared" ref="N27:N32" si="6">(M27-M26)</f>
+      <c r="N27" s="128">
+        <f t="shared" ref="N27:N32" si="5">(M27-M26)</f>
         <v>0.27803176502213134</v>
       </c>
       <c r="O27" s="8"/>
@@ -2669,59 +2839,52 @@
       <c r="AP27" s="38"/>
     </row>
     <row r="28" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="162">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30">
         <v>3</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="178">
         <f>P28</f>
         <v>1.678505780916602</v>
       </c>
-      <c r="F28" s="106">
-        <v>0</v>
-      </c>
-      <c r="G28" s="84">
-        <v>0</v>
-      </c>
-      <c r="H28" s="107">
-        <v>0</v>
-      </c>
-      <c r="I28" s="121">
-        <f t="shared" si="5"/>
+      <c r="F28" s="104">
+        <v>0</v>
+      </c>
+      <c r="G28" s="83">
+        <v>0</v>
+      </c>
+      <c r="H28" s="105">
+        <v>0</v>
+      </c>
+      <c r="I28" s="119">
+        <f t="shared" ref="I27:I31" si="6">EXP(E28/$N$22)/(EXP($E28/$N$22)+EXP($F28/$N$22)+EXP($G28/$N$22)+EXP($H28/$N$22))</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="J28" s="122">
+      <c r="J28" s="120">
         <f t="shared" si="4"/>
         <v>0.21666666666666667</v>
       </c>
-      <c r="K28" s="123">
+      <c r="K28" s="121">
         <f t="shared" si="4"/>
         <v>0.21666666666666667</v>
       </c>
-      <c r="L28" s="124">
+      <c r="L28" s="122">
         <f t="shared" si="4"/>
         <v>0.21666666666666667</v>
       </c>
-      <c r="M28" s="134">
+      <c r="M28" s="137">
         <f>$N$22*LN(EXP($E28/$N$22)+EXP($F28/$N$22)+EXP($G28/$N$22)+EXP($H28/$N$22))</f>
         <v>5.352883216661974</v>
       </c>
-      <c r="N28" s="130">
-        <f t="shared" si="6"/>
+      <c r="N28" s="128">
+        <f t="shared" si="5"/>
         <v>0.22282118772022574</v>
       </c>
       <c r="O28" s="8"/>
-      <c r="P28" s="149">
-        <f>N22*LN(Q28/(1-Q28))+N22*LN((SUM((EXP(F28/N22)+EXP(G28/N22)+EXP(H28/N22)))))</f>
+      <c r="P28" s="141">
+        <f>N22*LN(P29/(1-P29))+N22*LN((SUM((EXP(F28/N22)+EXP(G28/N22)+EXP(H28/N22)))))</f>
         <v>1.678505780916602</v>
-      </c>
-      <c r="Q28" s="148">
-        <v>0.35</v>
-      </c>
-      <c r="R28" s="8" t="b">
-        <f>Q28=I28</f>
-        <v>1</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
@@ -2748,50 +2911,56 @@
       <c r="AO28" s="38"/>
       <c r="AP28" s="38"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="165"/>
-      <c r="D29" s="166">
+    <row r="29" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>4</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="89">
         <v>1.9019999999999999</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="104">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="83">
         <v>2.0649999999999999</v>
       </c>
-      <c r="H29" s="107">
+      <c r="H29" s="105">
         <v>1</v>
       </c>
-      <c r="I29" s="121">
-        <f t="shared" si="5"/>
+      <c r="I29" s="119">
+        <f t="shared" si="6"/>
         <v>0.27674497792592351</v>
       </c>
-      <c r="J29" s="122">
+      <c r="J29" s="120">
         <f t="shared" si="4"/>
         <v>0.21944385739095482</v>
       </c>
-      <c r="K29" s="123">
+      <c r="K29" s="121">
         <f t="shared" si="4"/>
         <v>0.28993821640004058</v>
       </c>
-      <c r="L29" s="124">
+      <c r="L29" s="122">
         <f t="shared" si="4"/>
         <v>0.21387294828308109</v>
       </c>
-      <c r="M29" s="134">
+      <c r="M29" s="137">
         <f t="shared" ref="M29:M32" si="7">$N$22*LN(EXP($E29/$N$22)+EXP($F29/$N$22)+EXP($G29/$N$22)+EXP($H29/$N$22))</f>
         <v>6.3983059895851007</v>
       </c>
-      <c r="N29" s="130">
-        <f t="shared" si="6"/>
+      <c r="N29" s="128">
+        <f t="shared" si="5"/>
         <v>1.0454227729231267</v>
       </c>
       <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
+      <c r="P29" s="140">
+        <v>0.35</v>
+      </c>
+      <c r="Q29" s="8" t="b">
+        <f>P29=I28</f>
+        <v>1</v>
+      </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
@@ -2819,46 +2988,46 @@
       <c r="AP29" s="38"/>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>5</v>
       </c>
-      <c r="E30" s="90">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F30" s="106">
+      <c r="E30" s="89">
+        <v>7</v>
+      </c>
+      <c r="F30" s="104">
         <v>4</v>
       </c>
-      <c r="G30" s="84">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H30" s="107">
-        <v>3.1</v>
-      </c>
-      <c r="I30" s="121">
+      <c r="G30" s="83">
+        <v>4.24</v>
+      </c>
+      <c r="H30" s="105">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="I30" s="119">
+        <f t="shared" si="6"/>
+        <v>0.45139161074053508</v>
+      </c>
+      <c r="J30" s="120">
+        <f t="shared" si="4"/>
+        <v>0.19155834236466296</v>
+      </c>
+      <c r="K30" s="121">
+        <f t="shared" si="4"/>
+        <v>0.20515460192968799</v>
+      </c>
+      <c r="L30" s="122">
+        <f t="shared" si="4"/>
+        <v>0.15189544496511398</v>
+      </c>
+      <c r="M30" s="137">
+        <f t="shared" si="7"/>
+        <v>9.7839699991259845</v>
+      </c>
+      <c r="N30" s="128">
         <f t="shared" si="5"/>
-        <v>0.36607225912727431</v>
-      </c>
-      <c r="J30" s="122">
-        <f t="shared" si="4"/>
-        <v>0.2673463553876782</v>
-      </c>
-      <c r="K30" s="123">
-        <f t="shared" si="4"/>
-        <v>0.15985374679155517</v>
-      </c>
-      <c r="L30" s="124">
-        <f t="shared" si="4"/>
-        <v>0.20672763869349214</v>
-      </c>
-      <c r="M30" s="134">
-        <f t="shared" si="7"/>
-        <v>8.6172358751525788</v>
-      </c>
-      <c r="N30" s="130">
-        <f t="shared" si="6"/>
-        <v>2.2189298855674782</v>
+        <v>3.3856640095408839</v>
       </c>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -2889,46 +3058,46 @@
       <c r="AP30" s="38"/>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>6</v>
       </c>
-      <c r="E31" s="90">
+      <c r="E31" s="89">
         <v>11</v>
       </c>
-      <c r="F31" s="106">
+      <c r="F31" s="104">
         <v>1</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="83">
         <v>3</v>
       </c>
-      <c r="H31" s="107">
+      <c r="H31" s="105">
         <v>1.2</v>
       </c>
-      <c r="I31" s="121">
-        <f t="shared" si="5"/>
+      <c r="I31" s="119">
+        <f t="shared" si="6"/>
         <v>0.8197097073143913</v>
       </c>
-      <c r="J31" s="122">
+      <c r="J31" s="120">
         <f t="shared" si="4"/>
         <v>4.7078075530157491E-2</v>
       </c>
-      <c r="K31" s="123">
+      <c r="K31" s="121">
         <f t="shared" si="4"/>
         <v>8.3365618519163867E-2</v>
       </c>
-      <c r="L31" s="124">
+      <c r="L31" s="122">
         <f t="shared" si="4"/>
         <v>4.9846598636287223E-2</v>
       </c>
-      <c r="M31" s="134">
-        <f t="shared" si="7"/>
+      <c r="M31" s="137">
+        <f>$N$22*LN(EXP($E31/$N$22)+EXP($F31/$N$22)+EXP($G31/$N$22)+EXP($H31/$N$22))</f>
         <v>11.695817559053268</v>
       </c>
-      <c r="N31" s="130">
-        <f t="shared" si="6"/>
-        <v>3.0785816839006888</v>
+      <c r="N31" s="128">
+        <f t="shared" si="5"/>
+        <v>1.9118475599272831</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -2959,45 +3128,45 @@
       <c r="AP31" s="38"/>
     </row>
     <row r="32" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>7</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="81">
         <v>10</v>
       </c>
-      <c r="F32" s="102">
-        <v>0</v>
-      </c>
-      <c r="G32" s="83">
-        <v>0</v>
-      </c>
-      <c r="H32" s="103">
-        <v>0</v>
-      </c>
-      <c r="I32" s="113">
+      <c r="F32" s="100">
+        <v>0</v>
+      </c>
+      <c r="G32" s="82">
+        <v>0</v>
+      </c>
+      <c r="H32" s="101">
+        <v>0</v>
+      </c>
+      <c r="I32" s="111">
         <f t="shared" ref="I32:K32" si="8">EXP(E32/$N$22)/(EXP($E32/$N$22)+EXP($F32/$N$22)+EXP($G32/$N$22)+EXP($H32/$N$22))</f>
         <v>0.85302552874593096</v>
       </c>
-      <c r="J32" s="114">
+      <c r="J32" s="112">
         <f t="shared" si="8"/>
         <v>4.8991490418023025E-2</v>
       </c>
-      <c r="K32" s="115">
+      <c r="K32" s="113">
         <f t="shared" si="8"/>
         <v>4.8991490418023025E-2</v>
       </c>
-      <c r="L32" s="116">
+      <c r="L32" s="114">
         <f t="shared" si="4"/>
         <v>4.8991490418023025E-2</v>
       </c>
-      <c r="M32" s="134">
+      <c r="M32" s="174">
         <f t="shared" si="7"/>
         <v>10.556380313119611</v>
       </c>
-      <c r="N32" s="78">
-        <f t="shared" si="6"/>
+      <c r="N32" s="77">
+        <f t="shared" si="5"/>
         <v>-1.1394372459336566</v>
       </c>
       <c r="O32" s="8"/>
@@ -3028,46 +3197,46 @@
       <c r="AO32" s="38"/>
       <c r="AP32" s="38"/>
     </row>
-    <row r="33" spans="2:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33">
+    <row r="33" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
         <v>8</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="179">
         <f>E32</f>
         <v>10</v>
       </c>
-      <c r="F33" s="108">
-        <v>0</v>
-      </c>
-      <c r="G33" s="96">
-        <v>0</v>
-      </c>
-      <c r="H33" s="109">
-        <v>0</v>
-      </c>
-      <c r="I33" s="125">
+      <c r="F33" s="106">
+        <v>0</v>
+      </c>
+      <c r="G33" s="94">
+        <v>0</v>
+      </c>
+      <c r="H33" s="107">
+        <v>0</v>
+      </c>
+      <c r="I33" s="123">
         <f>EXP(E33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
         <v>0.99986381875856889</v>
       </c>
-      <c r="J33" s="126">
+      <c r="J33" s="124">
         <f>EXP(F33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
         <v>4.5393747143688908E-5</v>
       </c>
-      <c r="K33" s="127">
+      <c r="K33" s="125">
         <f t="shared" ref="K33:L33" si="9">EXP(G33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
         <v>4.5393747143688908E-5</v>
       </c>
-      <c r="L33" s="128">
+      <c r="L33" s="126">
         <f t="shared" si="9"/>
         <v>4.5393747143688908E-5</v>
       </c>
-      <c r="M33" s="135">
+      <c r="M33" s="138">
         <f>$N$22*LN(EXP($E33/$N$22)+EXP($F33/$N$22)+EXP($G33/$N$22)+EXP($H33/$N$22))</f>
         <v>10.556380313119611</v>
       </c>
-      <c r="N33" s="131">
+      <c r="N33" s="77">
         <f>SUM(N26:N32)</f>
         <v>10.556380313119611</v>
       </c>
@@ -3080,7 +3249,7 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -3103,10 +3272,14 @@
       <c r="AO33" s="8"/>
       <c r="AP33" s="8"/>
     </row>
-    <row r="34" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="N34" s="132">
+    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="M34" s="171">
+        <v>0</v>
+      </c>
+      <c r="N34" s="129">
         <f>N33-(SUMPRODUCT(I33:L33,E33:H33))</f>
         <v>0.55774212553392211</v>
       </c>
@@ -3114,170 +3287,309 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="164">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="I37" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="176"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="43">
         <v>3</v>
       </c>
-      <c r="I38" s="151">
-        <v>0</v>
-      </c>
-      <c r="J38" s="151">
+      <c r="I38" s="143">
+        <v>0</v>
+      </c>
+      <c r="J38" s="143">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
+      <c r="M38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="H39" s="151">
-        <v>0</v>
-      </c>
-      <c r="I39" s="152">
+      <c r="D39" s="8"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="143">
+        <v>0</v>
+      </c>
+      <c r="I39" s="144">
         <f>I28</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="J39" s="153">
+      <c r="J39" s="145">
         <f>J28</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="K39" s="154">
+      <c r="K39" s="146">
         <f>SUM(I39:J39)</f>
         <v>0.56666666666666665</v>
       </c>
-    </row>
-    <row r="40" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
+      <c r="M39" s="180">
+        <f>J40/SUM(I40:J40)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="H40" s="151">
+      <c r="D40" s="8"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="143">
         <v>1</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="147">
         <f>K28</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="J40" s="156">
+      <c r="J40" s="148">
         <f>L28</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="K40" s="157">
+      <c r="K40" s="149">
         <f>SUM(I40:J40)</f>
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="41" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
+    <row r="41" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="I41" s="158">
+      <c r="D41" s="8"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="I41" s="182">
         <f>SUM(I39:I40)</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="J41" s="159">
+      <c r="J41" s="183">
         <f>SUM(J39:J40)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="K41" s="160">
+      <c r="K41" s="151">
         <f>SUM(I39:J40)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="157"/>
-    </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="149"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="157"/>
-    </row>
-    <row r="44" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="164">
+      <c r="D43" s="8"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="149"/>
+    </row>
+    <row r="44" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="43">
         <v>4</v>
       </c>
-      <c r="I44" s="161">
-        <v>0</v>
-      </c>
-      <c r="J44" s="161">
+      <c r="I44" s="152">
+        <v>0</v>
+      </c>
+      <c r="J44" s="152">
         <v>1</v>
       </c>
-      <c r="K44" s="157"/>
-    </row>
-    <row r="45" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="H45" s="151">
-        <v>0</v>
-      </c>
-      <c r="I45" s="152">
+      <c r="K44" s="149"/>
+      <c r="M44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="H45" s="143">
+        <v>0</v>
+      </c>
+      <c r="I45" s="144">
         <f>I29</f>
         <v>0.27674497792592351</v>
       </c>
-      <c r="J45" s="153">
+      <c r="J45" s="145">
         <f>J29</f>
         <v>0.21944385739095482</v>
       </c>
-      <c r="K45" s="154">
+      <c r="K45" s="146">
         <f>SUM(I45:J45)</f>
         <v>0.4961888353168783</v>
       </c>
-    </row>
-    <row r="46" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="151">
+      <c r="M45" s="181">
+        <f>J46/SUM(I46:J46)</f>
+        <v>0.42451014045629404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="H46" s="143">
         <v>1</v>
       </c>
-      <c r="I46" s="155">
+      <c r="I46" s="147">
         <f>K29</f>
         <v>0.28993821640004058</v>
       </c>
-      <c r="J46" s="156">
+      <c r="J46" s="148">
         <f>L29</f>
         <v>0.21387294828308109</v>
       </c>
-      <c r="K46" s="157">
+      <c r="K46" s="149">
         <f>SUM(I46:J46)</f>
         <v>0.5038111646831217</v>
       </c>
     </row>
-    <row r="47" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I47" s="158">
+    <row r="47" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="I47" s="182">
         <f>SUM(I45:I46)</f>
         <v>0.56668319432596403</v>
       </c>
-      <c r="J47" s="159">
+      <c r="J47" s="183">
         <f>SUM(J45:J46)</f>
         <v>0.43331680567403591</v>
       </c>
-      <c r="K47" s="160">
+      <c r="K47" s="151">
         <f>SUM(I45:J46)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="76" t="s">
-        <v>72</v>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G50" s="75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="57">
+        <v>5</v>
+      </c>
+      <c r="I53" s="152">
+        <v>0</v>
+      </c>
+      <c r="J53" s="152">
+        <v>1</v>
+      </c>
+      <c r="K53" s="149"/>
+      <c r="M53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="143">
+        <v>0</v>
+      </c>
+      <c r="I54" s="144">
+        <f>I30</f>
+        <v>0.45139161074053508</v>
+      </c>
+      <c r="J54" s="145">
+        <f>J30</f>
+        <v>0.19155834236466296</v>
+      </c>
+      <c r="K54" s="146">
+        <f>SUM(I54:J54)</f>
+        <v>0.64294995310519809</v>
+      </c>
+      <c r="M54" s="181">
+        <f>J55/SUM(I55:J55)</f>
+        <v>0.42541779867029983</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="143">
+        <v>1</v>
+      </c>
+      <c r="I55" s="147">
+        <f>K30</f>
+        <v>0.20515460192968799</v>
+      </c>
+      <c r="J55" s="148">
+        <f>L30</f>
+        <v>0.15189544496511398</v>
+      </c>
+      <c r="K55" s="149">
+        <f>SUM(I55:J55)</f>
+        <v>0.35705004689480196</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="182">
+        <f>SUM(I54:I55)</f>
+        <v>0.65654621267022306</v>
+      </c>
+      <c r="J56" s="150">
+        <f>SUM(J54:J55)</f>
+        <v>0.34345378732977694</v>
+      </c>
+      <c r="K56" s="151">
+        <f>SUM(I54:J55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G59" s="75" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3322,8 +3634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,48 +5804,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="168">
+      <c r="G2" s="154">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>78</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>82</v>
       </c>
       <c r="M4" t="s">
         <v>58</v>
@@ -5619,7 +5931,7 @@
         <f t="shared" ref="M6:M13" si="2">LN(SUM(EXP(C6/$G$2),EXP(D6/$G$2),EXP(E6/$G$2),EXP(F6/$G$2)))</f>
         <v>1.4401674799598645</v>
       </c>
-      <c r="N6" s="169">
+      <c r="N6" s="155">
         <f t="shared" ref="N6:N13" si="3">IFERROR(M6-M5,M6)</f>
         <v>5.3873118839973921E-2</v>
       </c>
@@ -5660,7 +5972,7 @@
         <f t="shared" si="2"/>
         <v>1.6703342146186519</v>
       </c>
-      <c r="N7" s="169">
+      <c r="N7" s="155">
         <f t="shared" si="3"/>
         <v>0.23016673465878745</v>
       </c>
@@ -5701,7 +6013,7 @@
         <f t="shared" si="2"/>
         <v>3.0458403017324911</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="155">
         <f t="shared" si="3"/>
         <v>1.3755060871138391</v>
       </c>
@@ -5742,7 +6054,7 @@
         <f t="shared" si="2"/>
         <v>6.1451937232473677</v>
       </c>
-      <c r="N9" s="169">
+      <c r="N9" s="155">
         <f t="shared" si="3"/>
         <v>3.0993534215148766</v>
       </c>
@@ -5787,7 +6099,7 @@
         <f t="shared" si="2"/>
         <v>11.467938244531888</v>
       </c>
-      <c r="N10" s="170">
+      <c r="N10" s="156">
         <f t="shared" si="3"/>
         <v>5.3227445212845206</v>
       </c>
@@ -5828,7 +6140,7 @@
         <f t="shared" si="2"/>
         <v>11.584659944367623</v>
       </c>
-      <c r="N11" s="170">
+      <c r="N11" s="156">
         <f>IFERROR(M11-M10,M11)</f>
         <v>0.11672169983573433</v>
       </c>
@@ -5869,7 +6181,7 @@
         <f t="shared" si="2"/>
         <v>16.1295486480068</v>
       </c>
-      <c r="N12" s="170">
+      <c r="N12" s="156">
         <f t="shared" si="3"/>
         <v>4.5448887036391774</v>
       </c>
@@ -5910,7 +6222,7 @@
         <f t="shared" si="2"/>
         <v>22.600002368711642</v>
       </c>
-      <c r="N13" s="170">
+      <c r="N13" s="156">
         <f t="shared" si="3"/>
         <v>6.4704537207048425</v>
       </c>
@@ -5921,31 +6233,31 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>78</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>58</v>
@@ -6031,7 +6343,7 @@
         <f t="shared" ref="M18:M25" si="6">LN(SUM(EXP(C18/$G$2),EXP(D18/$G$2),EXP(E18/$G$2),EXP(F18/$G$2)))</f>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N18" s="171">
+      <c r="N18" s="157">
         <f t="shared" ref="N18:N25" si="7">IFERROR(M18-M17,M18)</f>
         <v>0</v>
       </c>
@@ -6073,11 +6385,11 @@
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N19" s="172">
+      <c r="N19" s="158">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O19" s="173"/>
+      <c r="O19" s="159"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -6115,11 +6427,11 @@
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N20" s="172">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="173"/>
+      <c r="N20" s="158">
+        <f>IFERROR(M20-M19,M20)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="159"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21">
@@ -6157,11 +6469,11 @@
         <f t="shared" si="6"/>
         <v>6.1451937232473677</v>
       </c>
-      <c r="N21" s="174">
-        <f t="shared" si="7"/>
+      <c r="N21" s="160">
+        <f>IFERROR(M21-M20,M21)</f>
         <v>4.7588993621274769</v>
       </c>
-      <c r="O21" s="175">
+      <c r="O21" s="161">
         <f>SUM(N18:N21)</f>
         <v>4.7588993621274769</v>
       </c>
@@ -6202,7 +6514,7 @@
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N22" s="176">
+      <c r="N22" s="162">
         <f t="shared" si="7"/>
         <v>-4.7588993621274769</v>
       </c>
@@ -6244,11 +6556,11 @@
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N23" s="177">
+      <c r="N23" s="163">
         <f>IFERROR(M23-M22,M23)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="173"/>
+      <c r="O23" s="159"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -6286,11 +6598,11 @@
         <f t="shared" si="6"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N24" s="177">
+      <c r="N24" s="163">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O24" s="173"/>
+      <c r="O24" s="159"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25">
@@ -6328,56 +6640,56 @@
         <f t="shared" si="6"/>
         <v>22.600002368711642</v>
       </c>
-      <c r="N25" s="178">
+      <c r="N25" s="164">
         <f t="shared" si="7"/>
         <v>21.213708007591752</v>
       </c>
-      <c r="O25" s="175">
+      <c r="O25" s="161">
         <f>SUM(N22:N25)</f>
         <v>16.454808645464276</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="179" t="s">
-        <v>83</v>
+      <c r="B27" s="165" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="167" t="s">
+      <c r="F30" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="168">
+      <c r="G30" s="154">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>77</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>78</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>79</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>81</v>
-      </c>
-      <c r="K32" t="s">
-        <v>82</v>
       </c>
       <c r="M32" t="s">
         <v>58</v>
@@ -6467,7 +6779,7 @@
         <f t="shared" ref="M34:M73" si="10">LN(SUM(EXP(C34/$G$2),EXP(D34/$G$2),EXP(E34/$G$2),EXP(F34/$G$2)))</f>
         <v>1.4401674799598645</v>
       </c>
-      <c r="N34" s="169">
+      <c r="N34" s="155">
         <f t="shared" ref="N34:N73" si="11">$G$30*IFERROR(M34-M33,M34)</f>
         <v>0.26936559419986961</v>
       </c>
@@ -6512,7 +6824,7 @@
         <f t="shared" si="10"/>
         <v>1.6703342146186519</v>
       </c>
-      <c r="N35" s="169">
+      <c r="N35" s="155">
         <f t="shared" si="11"/>
         <v>1.1508336732939373</v>
       </c>
@@ -6557,7 +6869,7 @@
         <f t="shared" si="10"/>
         <v>3.0458403017324911</v>
       </c>
-      <c r="N36" s="169">
+      <c r="N36" s="155">
         <f t="shared" si="11"/>
         <v>6.877530435569196</v>
       </c>
@@ -6602,7 +6914,7 @@
         <f t="shared" si="10"/>
         <v>6.1451937232473677</v>
       </c>
-      <c r="N37" s="169">
+      <c r="N37" s="155">
         <f t="shared" si="11"/>
         <v>15.496767107574383</v>
       </c>
@@ -6651,7 +6963,7 @@
         <f t="shared" si="10"/>
         <v>11.467938244531888</v>
       </c>
-      <c r="N38" s="170">
+      <c r="N38" s="156">
         <f t="shared" si="11"/>
         <v>26.613722606422602</v>
       </c>
@@ -6696,7 +7008,7 @@
         <f t="shared" si="10"/>
         <v>11.584659944367623</v>
       </c>
-      <c r="N39" s="170">
+      <c r="N39" s="156">
         <f t="shared" si="11"/>
         <v>0.58360849917867164</v>
       </c>
@@ -6741,7 +7053,7 @@
         <f t="shared" si="10"/>
         <v>16.1295486480068</v>
       </c>
-      <c r="N40" s="170">
+      <c r="N40" s="156">
         <f t="shared" si="11"/>
         <v>22.724443518195887</v>
       </c>
@@ -6786,7 +7098,7 @@
         <f t="shared" si="10"/>
         <v>22.600002368711642</v>
       </c>
-      <c r="N41" s="170">
+      <c r="N41" s="156">
         <f t="shared" si="11"/>
         <v>32.352268603524209</v>
       </c>
@@ -6848,53 +7160,53 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="180">
+      <c r="B43" s="166">
         <v>11</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="167">
         <v>30</v>
       </c>
-      <c r="D43" s="181">
-        <v>0</v>
-      </c>
-      <c r="E43" s="181">
-        <v>0</v>
-      </c>
-      <c r="F43" s="181">
-        <v>0</v>
-      </c>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182">
+      <c r="D43" s="167">
+        <v>0</v>
+      </c>
+      <c r="E43" s="167">
+        <v>0</v>
+      </c>
+      <c r="F43" s="167">
+        <v>0</v>
+      </c>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168">
         <f t="shared" si="9"/>
         <v>0.9926186332070156</v>
       </c>
-      <c r="I43" s="182">
+      <c r="I43" s="168">
         <f t="shared" si="8"/>
         <v>2.4604555976614757E-3</v>
       </c>
-      <c r="J43" s="182">
+      <c r="J43" s="168">
         <f t="shared" si="8"/>
         <v>2.4604555976614757E-3</v>
       </c>
-      <c r="K43" s="182">
+      <c r="K43" s="168">
         <f t="shared" si="8"/>
         <v>2.4604555976614757E-3</v>
       </c>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182">
+      <c r="L43" s="168"/>
+      <c r="M43" s="168">
         <f t="shared" si="10"/>
         <v>6.007408743884282</v>
       </c>
-      <c r="N43" s="183">
+      <c r="N43" s="169">
         <f t="shared" si="11"/>
         <v>-0.12240619627777782</v>
       </c>
-      <c r="O43" s="168"/>
-      <c r="Q43" s="180">
+      <c r="O43" s="154"/>
+      <c r="Q43" s="166">
         <f>SUM($N$33:N43)</f>
         <v>30.037043719421405</v>
       </c>
-      <c r="R43" s="180">
+      <c r="R43" s="166">
         <f>Q43</f>
         <v>30.037043719421405</v>
       </c>
@@ -6936,7 +7248,7 @@
         <f t="shared" si="10"/>
         <v>5.8090416649097278</v>
       </c>
-      <c r="N44" s="184">
+      <c r="N44" s="170">
         <f t="shared" si="11"/>
         <v>-0.99183539487277095</v>
       </c>
@@ -6986,7 +7298,7 @@
         <f t="shared" si="10"/>
         <v>5.611032508601852</v>
       </c>
-      <c r="N45" s="184">
+      <c r="N45" s="170">
         <f t="shared" si="11"/>
         <v>-0.99004578153937928</v>
       </c>
@@ -7036,7 +7348,7 @@
         <f t="shared" si="10"/>
         <v>5.4134587659500593</v>
       </c>
-      <c r="N46" s="184">
+      <c r="N46" s="170">
         <f t="shared" si="11"/>
         <v>-0.98786871325896364</v>
       </c>
@@ -7086,7 +7398,7 @@
         <f t="shared" si="10"/>
         <v>5.2164142395241928</v>
       </c>
-      <c r="N47" s="184">
+      <c r="N47" s="170">
         <f t="shared" si="11"/>
         <v>-0.98522263212933225</v>
       </c>
@@ -7136,7 +7448,7 @@
         <f t="shared" si="10"/>
         <v>5.020012253359627</v>
       </c>
-      <c r="N48" s="184">
+      <c r="N48" s="170">
         <f t="shared" si="11"/>
         <v>-0.98200993082282917</v>
       </c>
@@ -7186,7 +7498,7 @@
         <f t="shared" si="10"/>
         <v>4.8243893872534933</v>
       </c>
-      <c r="N49" s="184">
+      <c r="N49" s="170">
         <f t="shared" si="11"/>
         <v>-0.97811433053066832</v>
       </c>
@@ -7236,7 +7548,7 @@
         <f t="shared" si="10"/>
         <v>4.6297097687425195</v>
       </c>
-      <c r="N50" s="184">
+      <c r="N50" s="170">
         <f t="shared" si="11"/>
         <v>-0.97339809255486909</v>
       </c>
@@ -7286,7 +7598,7 @@
         <f t="shared" si="10"/>
         <v>4.4361699293461783</v>
       </c>
-      <c r="N51" s="184">
+      <c r="N51" s="170">
         <f t="shared" si="11"/>
         <v>-0.96769919698170614</v>
       </c>
@@ -7336,7 +7648,7 @@
         <f t="shared" si="10"/>
         <v>4.2440041872131218</v>
       </c>
-      <c r="N52" s="184">
+      <c r="N52" s="170">
         <f t="shared" si="11"/>
         <v>-0.96082871066528241</v>
       </c>
@@ -7386,7 +7698,7 @@
         <f t="shared" si="10"/>
         <v>4.0534904497059339</v>
       </c>
-      <c r="N53" s="184">
+      <c r="N53" s="170">
         <f t="shared" si="11"/>
         <v>-0.9525686875359396</v>
       </c>
@@ -7436,7 +7748,7 @@
         <f t="shared" si="10"/>
         <v>3.8649562297306539</v>
       </c>
-      <c r="N54" s="184">
+      <c r="N54" s="170">
         <f t="shared" si="11"/>
         <v>-0.94267109987639985</v>
       </c>
@@ -7486,7 +7798,7 @@
         <f t="shared" si="10"/>
         <v>3.6787845325108988</v>
       </c>
-      <c r="N55" s="184">
+      <c r="N55" s="170">
         <f t="shared" si="11"/>
         <v>-0.93085848609877564</v>
       </c>
@@ -7536,7 +7848,7 @@
         <f t="shared" si="10"/>
         <v>3.4954190919467987</v>
       </c>
-      <c r="N56" s="184">
+      <c r="N56" s="170">
         <f t="shared" si="11"/>
         <v>-0.91682720282050045</v>
       </c>
@@ -7586,7 +7898,7 @@
         <f t="shared" si="10"/>
         <v>3.3153682218368692</v>
       </c>
-      <c r="N57" s="184">
+      <c r="N57" s="170">
         <f t="shared" si="11"/>
         <v>-0.90025435054964742</v>
       </c>
@@ -7636,7 +7948,7 @@
         <f t="shared" si="10"/>
         <v>3.1392063142194564</v>
       </c>
-      <c r="N58" s="184">
+      <c r="N58" s="170">
         <f t="shared" si="11"/>
         <v>-0.88080953808706397</v>
       </c>
@@ -7686,7 +7998,7 @@
         <f t="shared" si="10"/>
         <v>2.9675718019038646</v>
       </c>
-      <c r="N59" s="184">
+      <c r="N59" s="170">
         <f t="shared" si="11"/>
         <v>-0.85817256157795896</v>
       </c>
@@ -7736,7 +8048,7 @@
         <f t="shared" si="10"/>
         <v>2.8011602675827989</v>
       </c>
-      <c r="N60" s="184">
+      <c r="N60" s="170">
         <f t="shared" si="11"/>
         <v>-0.83205767160532851</v>
       </c>
@@ -7786,7 +8098,7 @@
         <f t="shared" si="10"/>
         <v>2.6407114166188883</v>
       </c>
-      <c r="N61" s="184">
+      <c r="N61" s="170">
         <f t="shared" si="11"/>
         <v>-0.80224425481955297</v>
       </c>
@@ -7836,7 +8148,7 @@
         <f t="shared" si="10"/>
         <v>2.486988938605259</v>
       </c>
-      <c r="N62" s="184">
+      <c r="N62" s="170">
         <f t="shared" si="11"/>
         <v>-0.7686123900681463</v>
       </c>
@@ -7886,7 +8198,7 @@
         <f t="shared" si="10"/>
         <v>2.3407529539131313</v>
       </c>
-      <c r="N63" s="184">
+      <c r="N63" s="170">
         <f t="shared" si="11"/>
         <v>-0.73117992346063865</v>
       </c>
@@ -7936,7 +8248,7 @@
         <f t="shared" si="10"/>
         <v>2.2027258027445855</v>
       </c>
-      <c r="N64" s="184">
+      <c r="N64" s="170">
         <f t="shared" si="11"/>
         <v>-0.69013575584272902</v>
       </c>
@@ -7986,7 +8298,7 @@
         <f t="shared" si="10"/>
         <v>2.0735532929684619</v>
       </c>
-      <c r="N65" s="184">
+      <c r="N65" s="170">
         <f t="shared" si="11"/>
         <v>-0.645862548880618</v>
       </c>
@@ -8017,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:K87" si="15">EXP(C66/$G$2)/SUM(EXP($C66/$G$2),EXP($D66/$G$2),EXP($E66/$G$2),EXP($F66/$G$2))</f>
+        <f t="shared" ref="H66:K73" si="15">EXP(C66/$G$2)/SUM(EXP($C66/$G$2),EXP($D66/$G$2),EXP($E66/$G$2),EXP($F66/$G$2))</f>
         <v>0.5747817192853143</v>
       </c>
       <c r="I66">
@@ -8036,7 +8348,7 @@
         <f t="shared" si="10"/>
         <v>1.9537649288924173</v>
       </c>
-      <c r="N66" s="184">
+      <c r="N66" s="170">
         <f t="shared" si="11"/>
         <v>-0.59894182038022326</v>
       </c>
@@ -8086,7 +8398,7 @@
         <f t="shared" si="10"/>
         <v>1.8437377084206332</v>
       </c>
-      <c r="N67" s="184">
+      <c r="N67" s="170">
         <f t="shared" si="11"/>
         <v>-0.55013610235892019</v>
       </c>
@@ -8136,7 +8448,7 @@
         <f t="shared" si="10"/>
         <v>1.743668380628679</v>
       </c>
-      <c r="N68" s="184">
+      <c r="N68" s="170">
         <f t="shared" si="11"/>
         <v>-0.50034663895977105</v>
       </c>
@@ -8186,7 +8498,7 @@
         <f t="shared" si="10"/>
         <v>1.6535583194765306</v>
       </c>
-      <c r="N69" s="184">
+      <c r="N69" s="170">
         <f t="shared" si="11"/>
         <v>-0.45055030576074184</v>
       </c>
@@ -8236,7 +8548,7 @@
         <f t="shared" si="10"/>
         <v>1.5732134166165241</v>
       </c>
-      <c r="N70" s="184">
+      <c r="N70" s="170">
         <f t="shared" si="11"/>
         <v>-0.40172451430003253</v>
       </c>
@@ -8286,7 +8598,7 @@
         <f t="shared" si="10"/>
         <v>1.5022590106563736</v>
       </c>
-      <c r="N71" s="184">
+      <c r="N71" s="170">
         <f t="shared" si="11"/>
         <v>-0.35477202980075284</v>
       </c>
@@ -8336,7 +8648,7 @@
         <f t="shared" si="10"/>
         <v>1.4401674799598645</v>
       </c>
-      <c r="N72" s="184">
+      <c r="N72" s="170">
         <f t="shared" si="11"/>
         <v>-0.31045765348254539</v>
       </c>
@@ -8386,7 +8698,7 @@
         <f t="shared" si="10"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="N73" s="184">
+      <c r="N73" s="170">
         <f t="shared" si="11"/>
         <v>-0.26936559419986961</v>
       </c>

--- a/docs/HansonsLogarithmicScoringRule_v5.xlsx
+++ b/docs/HansonsLogarithmicScoringRule_v5.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLMSR" sheetId="6" r:id="rId1"/>
-    <sheet name="2x2 (Pr)" sheetId="5" r:id="rId2"/>
+    <sheet name="Changing b mid contract" sheetId="8" r:id="rId2"/>
     <sheet name="Some Accounting" sheetId="7" r:id="rId3"/>
+    <sheet name="2x2 Update Calculator" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>Final</t>
   </si>
@@ -224,6 +225,12 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b1</t>
   </si>
 </sst>
 </file>
@@ -837,7 +844,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1026,25 +1033,10 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1081,6 +1073,44 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1215,11 +1245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="58376704"/>
-        <c:axId val="58160192"/>
+        <c:axId val="136340224"/>
+        <c:axId val="136341760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58376704"/>
+        <c:axId val="136340224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58160192"/>
+        <c:crossAx val="136341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58160192"/>
+        <c:axId val="136341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,7 +1277,178 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58376704"/>
+        <c:crossAx val="136340224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changing b mid contract'!$AM$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Changing b mid contract'!$AM$26:$AM$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changing b mid contract'!$AN$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Changing b mid contract'!$AN$26:$AN$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changing b mid contract'!$AO$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Changing b mid contract'!$AO$26:$AO$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Changing b mid contract'!$AP$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'Changing b mid contract'!$AP$26:$AP$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96314880"/>
+        <c:axId val="96316416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96314880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96316416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96316416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96314880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1441,6 +1642,43 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1735,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AP59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1992,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="163" t="s">
         <v>2</v>
       </c>
       <c r="K2" t="s">
@@ -2170,7 +2408,7 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="163" t="s">
         <v>3</v>
       </c>
       <c r="K20" t="s">
@@ -3262,10 +3500,4599 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AP60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="9" width="11.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="12" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="163" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="34">
+        <f>COUNTA(E7:F7)</f>
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <f>I8</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="89">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="3:20" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6"/>
+      <c r="E6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
+      <c r="D7" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="43">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="3:20" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="51">
+        <f>EXP(E8/$N$4)/(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="92">
+        <f t="shared" ref="G8:H14" si="0">EXP(F8/$N$4)/(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="95">
+        <f>$N$4*LN(EXP($F8/$N$4)+EXP($E8/$N$4))</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="J8" s="47">
+        <f>(I8-I7)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="48">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <f t="shared" si="0"/>
+        <v>0.7310585786300049</v>
+      </c>
+      <c r="H9" s="93">
+        <f t="shared" si="0"/>
+        <v>0.2689414213699951</v>
+      </c>
+      <c r="I9" s="96">
+        <f t="shared" ref="I9:I12" si="1">$N$4*LN(EXP($F9/$N$4)+EXP($E9/$N$4))</f>
+        <v>1.3132616875182228</v>
+      </c>
+      <c r="J9" s="50">
+        <f>(I9-I8)</f>
+        <v>0.62011450695827752</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="101">
+        <f>L10</f>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0</v>
+      </c>
+      <c r="G10" s="98">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="96">
+        <f t="shared" si="1"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" ref="J10:J13" si="2">(I10-I9)</f>
+        <v>7.3032673601667764E-2</v>
+      </c>
+      <c r="L10" s="100">
+        <f>N4*LN(L11/(1-L11))+F10</f>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <f t="shared" si="0"/>
+        <v>0.62245933120185459</v>
+      </c>
+      <c r="H11" s="93">
+        <f t="shared" si="0"/>
+        <v>0.37754066879814541</v>
+      </c>
+      <c r="I11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.97407698418010669</v>
+      </c>
+      <c r="J11" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.41221737693978389</v>
+      </c>
+      <c r="L11" s="99">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="7" t="b">
+        <f>L11=G10</f>
+        <v>1</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="49">
+        <f t="shared" si="0"/>
+        <v>0.78583498304255861</v>
+      </c>
+      <c r="H12" s="93">
+        <f t="shared" si="0"/>
+        <v>0.21416501695744139</v>
+      </c>
+      <c r="I12" s="96">
+        <f t="shared" si="1"/>
+        <v>2.3410084538329925</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="2"/>
+        <v>1.3669314696528858</v>
+      </c>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="3:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+      <c r="D13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="48">
+        <v>3</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="49">
+        <f t="shared" si="0"/>
+        <v>0.86989152563700223</v>
+      </c>
+      <c r="H13" s="93">
+        <f t="shared" si="0"/>
+        <v>0.13010847436299786</v>
+      </c>
+      <c r="I13" s="96">
+        <f>$N$4*LN(EXP($F13/$N$4)+EXP($E13/$N$4))</f>
+        <v>3.1393867582829604</v>
+      </c>
+      <c r="J13" s="50">
+        <f t="shared" si="2"/>
+        <v>0.79837830444996793</v>
+      </c>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="40">
+        <v>3</v>
+      </c>
+      <c r="F14" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="131">
+        <f t="shared" si="0"/>
+        <v>0.94267582410113127</v>
+      </c>
+      <c r="H14" s="132">
+        <f t="shared" si="0"/>
+        <v>5.7324175898868741E-2</v>
+      </c>
+      <c r="I14" s="133">
+        <f>$N$4*LN(EXP($F14/$N$4)+EXP($E14/$N$4))</f>
+        <v>3.0590328262879716</v>
+      </c>
+      <c r="J14" s="134">
+        <f>(I14-I13)</f>
+        <v>-8.0353931994988859E-2</v>
+      </c>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="3:20" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52">
+        <f>E14</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="53">
+        <f t="shared" ref="F15" si="3">F14</f>
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="54">
+        <f>EXP(E15)/(EXP($F15)+EXP($E15))</f>
+        <v>0.94267582410113127</v>
+      </c>
+      <c r="H15" s="94">
+        <f>EXP(F15)/(EXP($F15)+EXP($E15))</f>
+        <v>5.7324175898868741E-2</v>
+      </c>
+      <c r="I15" s="97">
+        <f>$N$4*LN(EXP($F15/$N$4)+EXP($E15/$N$4))</f>
+        <v>3.0590328262879716</v>
+      </c>
+      <c r="J15" s="55">
+        <f>SUM(J8:J14)</f>
+        <v>3.0590328262879716</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="3:20" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="130">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <f>J15-(SUMPRODUCT(G15:H15,E15:F15))</f>
+        <v>0.21954051880480385</v>
+      </c>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" spans="2:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="2:42" ht="21" x14ac:dyDescent="0.35">
+      <c r="D20" s="163" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="34">
+        <f>COUNTA(E25:H25)</f>
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <f>M26</f>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="24" spans="2:42" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="E24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+    </row>
+    <row r="25" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="43">
+        <v>0</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="18"/>
+    </row>
+    <row r="26" spans="2:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
+        <v>0</v>
+      </c>
+      <c r="H26" s="62">
+        <v>0</v>
+      </c>
+      <c r="I26" s="74">
+        <f>EXP(E26/$C26)/(EXP($E26/$C26)+EXP($F26/$C26)+EXP($G26/$C26)+EXP($H26/$C26))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J26" s="75">
+        <f t="shared" ref="J26:J32" si="4">EXP(F26/$C26)/(EXP($E26/$C26)+EXP($F26/$C26)+EXP($G26/$C26)+EXP($H26/$C26))</f>
+        <v>0.25</v>
+      </c>
+      <c r="K26" s="76">
+        <f t="shared" ref="K26:K32" si="5">EXP(G26/$C26)/(EXP($E26/$C26)+EXP($F26/$C26)+EXP($G26/$C26)+EXP($H26/$C26))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L26" s="77">
+        <f t="shared" ref="L26:L32" si="6">EXP(H26/$C26)/(EXP($E26/$C26)+EXP($F26/$C26)+EXP($G26/$C26)+EXP($H26/$C26))</f>
+        <v>0.25</v>
+      </c>
+      <c r="M26" s="95">
+        <f>$C26*LN(EXP($E26/$C26)+EXP($F26/$C26)+EXP($G26/$C26)+EXP($H26/$C26))</f>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="N26" s="86">
+        <f>(M26-0)</f>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="63">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42">
+        <v>2</v>
+      </c>
+      <c r="H27" s="64">
+        <v>0</v>
+      </c>
+      <c r="I27" s="78">
+        <f t="shared" ref="I27:I32" si="7">EXP(E27/$C27)/(EXP($E27/$C27)+EXP($F27/$C27)+EXP($G27/$C27)+EXP($H27/$C27))</f>
+        <v>0.1570597633495828</v>
+      </c>
+      <c r="J27" s="79">
+        <f t="shared" si="4"/>
+        <v>0.25894777260558555</v>
+      </c>
+      <c r="K27" s="80">
+        <f t="shared" si="5"/>
+        <v>0.4269327006952488</v>
+      </c>
+      <c r="L27" s="81">
+        <f t="shared" si="6"/>
+        <v>0.1570597633495828</v>
+      </c>
+      <c r="M27" s="96">
+        <f t="shared" ref="M27:M33" si="8">$C27*LN(EXP($E27/$C27)+EXP($F27/$C27)+EXP($G27/$C27)+EXP($H27/$C27))</f>
+        <v>3.7022577755764261</v>
+      </c>
+      <c r="N27" s="87">
+        <f>(M27-M26)</f>
+        <v>0.92966905333664496</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="17">
+        <v>2</v>
+      </c>
+      <c r="D28" s="17">
+        <v>3</v>
+      </c>
+      <c r="E28" s="48">
+        <v>1</v>
+      </c>
+      <c r="F28" s="63">
+        <v>1</v>
+      </c>
+      <c r="G28" s="42">
+        <v>2</v>
+      </c>
+      <c r="H28" s="64">
+        <v>0</v>
+      </c>
+      <c r="I28" s="78">
+        <f t="shared" si="7"/>
+        <v>0.23500371220159452</v>
+      </c>
+      <c r="J28" s="79">
+        <f t="shared" si="4"/>
+        <v>0.23500371220159452</v>
+      </c>
+      <c r="K28" s="80">
+        <f t="shared" si="5"/>
+        <v>0.3874556190002601</v>
+      </c>
+      <c r="L28" s="81">
+        <f t="shared" si="6"/>
+        <v>0.14253695659655097</v>
+      </c>
+      <c r="M28" s="96">
+        <f>$C28*LN(EXP($E28/$C28)+EXP($F28/$C28)+EXP($G28/$C28)+EXP($H28/$C28))</f>
+        <v>3.8963079367204267</v>
+      </c>
+      <c r="N28" s="87">
+        <f>(M28-M27)</f>
+        <v>0.19405016114400064</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B29" s="169" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="169">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="63">
+        <v>0</v>
+      </c>
+      <c r="G29" s="42">
+        <f>E29</f>
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="64">
+        <f>E29</f>
+        <v>0.02</v>
+      </c>
+      <c r="I29" s="78">
+        <f t="shared" si="7"/>
+        <v>0.25062343621417149</v>
+      </c>
+      <c r="J29" s="79">
+        <f t="shared" si="4"/>
+        <v>0.24812969135748572</v>
+      </c>
+      <c r="K29" s="80">
+        <f t="shared" si="5"/>
+        <v>0.25062343621417149</v>
+      </c>
+      <c r="L29" s="81">
+        <f t="shared" si="6"/>
+        <v>0.25062343621417149</v>
+      </c>
+      <c r="M29" s="96">
+        <f>$C29*LN(EXP($E29/$C29)+EXP($F29/$C29)+EXP($G29/$C29)+EXP($H29/$C29))</f>
+        <v>2.7876074409704446</v>
+      </c>
+      <c r="N29" s="87">
+        <f>(M29-M28)</f>
+        <v>-1.1087004957499822</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B30" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="169">
+        <v>2.1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="48">
+        <f>E29</f>
+        <v>0.02</v>
+      </c>
+      <c r="F30" s="63">
+        <f t="shared" ref="F30:H30" si="9">F29</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="H30" s="64">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="I30" s="78">
+        <f t="shared" si="7"/>
+        <v>0.25059381975026318</v>
+      </c>
+      <c r="J30" s="79">
+        <f>EXP(F30/$C30)/(EXP($E30/$C30)+EXP($F30/$C30)+EXP($G30/$C30)+EXP($H30/$C30))</f>
+        <v>0.2482185407492106</v>
+      </c>
+      <c r="K30" s="80">
+        <f t="shared" si="5"/>
+        <v>0.25059381975026318</v>
+      </c>
+      <c r="L30" s="81">
+        <f t="shared" si="6"/>
+        <v>0.25059381975026318</v>
+      </c>
+      <c r="M30" s="96">
+        <f>$C30*LN(EXP($E30/$C30)+EXP($F30/$C30)+EXP($G30/$C30)+EXP($H30/$C30))</f>
+        <v>2.9262359871332446</v>
+      </c>
+      <c r="N30" s="87">
+        <f>(M30-M29)</f>
+        <v>0.13862854616280007</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
+        <f>(C30-C29)*LN(I21)</f>
+        <v>0.13862943611198919</v>
+      </c>
+      <c r="Q30" t="b">
+        <f>P30&gt;N30</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B31" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="169">
+        <v>2.1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6</v>
+      </c>
+      <c r="E31" s="48">
+        <v>1</v>
+      </c>
+      <c r="F31" s="63">
+        <v>4</v>
+      </c>
+      <c r="G31" s="42">
+        <v>1</v>
+      </c>
+      <c r="H31" s="64">
+        <v>2</v>
+      </c>
+      <c r="I31" s="78">
+        <f>EXP(E31/$C31)/(EXP($E31/$C31)+EXP($F31/$C31)+EXP($G31/$C31)+EXP($H31/$C31))</f>
+        <v>0.12849071490310432</v>
+      </c>
+      <c r="J31" s="79">
+        <f t="shared" si="4"/>
+        <v>0.53615755980392621</v>
+      </c>
+      <c r="K31" s="80">
+        <f t="shared" si="5"/>
+        <v>0.12849071490310432</v>
+      </c>
+      <c r="L31" s="81">
+        <f t="shared" si="6"/>
+        <v>0.20686101038986507</v>
+      </c>
+      <c r="M31" s="96">
+        <f>$C31*LN(EXP($E31/$C31)+EXP($F31/$C31)+EXP($G31/$C31)+EXP($H31/$C31))</f>
+        <v>5.3089871331240097</v>
+      </c>
+      <c r="N31" s="87">
+        <f>(M31-M30)</f>
+        <v>2.3827511459907651</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" t="b">
+        <f>N34&gt;M34</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+    </row>
+    <row r="32" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="169">
+        <v>2.1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7</v>
+      </c>
+      <c r="E32" s="40">
+        <v>0</v>
+      </c>
+      <c r="F32" s="59">
+        <v>25</v>
+      </c>
+      <c r="G32" s="41">
+        <v>0</v>
+      </c>
+      <c r="H32" s="60">
+        <v>0</v>
+      </c>
+      <c r="I32" s="70">
+        <f t="shared" si="7"/>
+        <v>6.7580093981986961E-6</v>
+      </c>
+      <c r="J32" s="71">
+        <f>EXP(F32/$C32)/(EXP($E32/$C32)+EXP($F32/$C32)+EXP($G32/$C32)+EXP($H32/$C32))</f>
+        <v>0.9999797259718054</v>
+      </c>
+      <c r="K32" s="72">
+        <f t="shared" si="5"/>
+        <v>6.7580093981986961E-6</v>
+      </c>
+      <c r="L32" s="73">
+        <f t="shared" si="6"/>
+        <v>6.7580093981986961E-6</v>
+      </c>
+      <c r="M32" s="133">
+        <f>$C32*LN(EXP($E32/$C32)+EXP($F32/$C32)+EXP($G32/$C32)+EXP($H32/$C32))</f>
+        <v>25.000042575890806</v>
+      </c>
+      <c r="N32" s="36">
+        <f>(M32-M31)</f>
+        <v>19.691055442766796</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+    </row>
+    <row r="33" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="169">
+        <v>2.1</v>
+      </c>
+      <c r="D33" s="7">
+        <v>8</v>
+      </c>
+      <c r="E33" s="137">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="65">
+        <f>F32</f>
+        <v>25</v>
+      </c>
+      <c r="G33" s="53">
+        <f>G32</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="66">
+        <f>H32</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="82">
+        <f>EXP(E33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
+        <v>1.3887943864385394E-11</v>
+      </c>
+      <c r="J33" s="83">
+        <f>EXP(F33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
+        <v>0.99999999995833622</v>
+      </c>
+      <c r="K33" s="84">
+        <f t="shared" ref="K33:L33" si="10">EXP(G33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
+        <v>1.3887943864385394E-11</v>
+      </c>
+      <c r="L33" s="85">
+        <f>EXP(H33)/(EXP($E33)+EXP($F33)+EXP($G33)+EXP($H33))</f>
+        <v>1.3887943864385394E-11</v>
+      </c>
+      <c r="M33" s="97">
+        <f>$C33*LN(EXP($E33/$C33)+EXP($F33/$C33)+EXP($G33/$C33)+EXP($H33/$C33))</f>
+        <v>25.000042575890806</v>
+      </c>
+      <c r="N33" s="36">
+        <f>SUM(N26:N32)</f>
+        <v>25.000042575890806</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+    </row>
+    <row r="34" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="M34" s="130">
+        <v>0</v>
+      </c>
+      <c r="N34" s="179">
+        <f>N33-(SUMPRODUCT(I33:L33,E33:H33))</f>
+        <v>4.257693240106164E-5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="135"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="174"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="169"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="174"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="174"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="175"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="173"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="174"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="174"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="G48" s="169"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="169"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="169"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="169"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G53" s="178"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="174"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G54" s="169"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="174"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G55" s="169"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="174"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G57" s="169"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="169"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G58" s="169"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="169"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G59" s="169"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="169"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G60" s="169"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="169"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AM26:AP32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{92065603-D565-4D36-BD75-4261CB35D089}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{92065603-D565-4D36-BD75-4261CB35D089}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AM26:AP32</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>EXP(C6/$G$3)/SUM(EXP($C6/$G$3),EXP($D6/$G$3),EXP($E6/$G$3),EXP($F6/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:K14" si="0">EXP(D6/$G$3)/SUM(EXP($C6/$G$3),EXP($D6/$G$3),EXP($E6/$G$3),EXP($F6/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M6">
+        <f>LN(SUM(EXP(C6/$G$3),EXP(D6/$G$3),EXP(E6/$G$3),EXP(F6/$G$3)))</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N6">
+        <f>IFERROR(M6-M5,M6)</f>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H14" si="1">EXP(C7/$G$3)/SUM(EXP($C7/$G$3),EXP($D7/$G$3),EXP($E7/$G$3),EXP($F7/$G$3))</f>
+        <v>0.28933575594016492</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M14" si="2">LN(SUM(EXP(C7/$G$3),EXP(D7/$G$3),EXP(E7/$G$3),EXP(F7/$G$3)))</f>
+        <v>1.4401674799598645</v>
+      </c>
+      <c r="N7" s="114">
+        <f t="shared" ref="N7:N14" si="3">IFERROR(M7-M6,M7)</f>
+        <v>5.3873118839973921E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.28073777942761796</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.34289389811265397</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.18818416122986403</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.18818416122986403</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1.6703342146186519</v>
+      </c>
+      <c r="N8" s="114">
+        <f t="shared" si="3"/>
+        <v>0.23016673465878745</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.23554806192697511</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.28769905251688987</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.42919655203268925</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>4.755633352344573E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>3.0458403017324911</v>
+      </c>
+      <c r="N9" s="114">
+        <f t="shared" si="3"/>
+        <v>1.3755060871138391</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.14295952607174461</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.31816227639055356</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.47464234177719605</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>6.4235855760505917E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>6.1451937232473677</v>
+      </c>
+      <c r="N10" s="114">
+        <f t="shared" si="3"/>
+        <v>3.0993534215148766</v>
+      </c>
+      <c r="O10">
+        <f>SUM(N7:N10)</f>
+        <v>4.7588993621274769</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5.1542263800937928E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.4010639908773201E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.6516962659485954E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.93431817105164705</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>11.467938244531888</v>
+      </c>
+      <c r="N11" s="115">
+        <f t="shared" si="3"/>
+        <v>5.3227445212845206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>4.1392319099229483E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.37356623864343058</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.55729534101322264</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.7746101244117367E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>11.584659944367623</v>
+      </c>
+      <c r="N12" s="115">
+        <f>IFERROR(M12-M11,M12)</f>
+        <v>0.11672169983573433</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.1775635866085013E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.87849185049918066</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.11889094340836263</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>4.3964250584820985E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>16.1295486480068</v>
+      </c>
+      <c r="N13" s="115">
+        <f t="shared" si="3"/>
+        <v>4.5448887036391774</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>113</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>6.1760467062892996E-8</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4.5635155582387502E-7</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.99999763129116293</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1.8505968140464941E-6</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>22.600002368711642</v>
+      </c>
+      <c r="N14" s="115">
+        <f t="shared" si="3"/>
+        <v>6.4704537207048425</v>
+      </c>
+      <c r="O14">
+        <f>SUM(N11:N14)</f>
+        <v>16.454808645464276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>EXP(C18/$G$3)/SUM(EXP($C18/$G$3),EXP($D18/$G$3),EXP($E18/$G$3),EXP($F18/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K26" si="4">EXP(D18/$G$3)/SUM(EXP($C18/$G$3),EXP($D18/$G$3),EXP($E18/$G$3),EXP($F18/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M18">
+        <f>LN(SUM(EXP(C18/$G$3),EXP(D18/$G$3),EXP(E18/$G$3),EXP(F18/$G$3)))</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N18">
+        <f>IFERROR(M18-M17,M18)</f>
+        <v>1.3862943611198906</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H26" si="5">EXP(C19/$G$3)/SUM(EXP($C19/$G$3),EXP($D19/$G$3),EXP($E19/$G$3),EXP($F19/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M26" si="6">LN(SUM(EXP(C19/$G$3),EXP(D19/$G$3),EXP(E19/$G$3),EXP(F19/$G$3)))</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N19" s="116">
+        <f t="shared" ref="N19:N26" si="7">IFERROR(M19-M18,M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N20" s="117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="118"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N21" s="117">
+        <f>IFERROR(M21-M20,M21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="118"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>0.14295952607174461</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0.31816227639055356</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.47464234177719605</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>6.4235855760505917E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>6.1451937232473677</v>
+      </c>
+      <c r="N22" s="119">
+        <f>IFERROR(M22-M21,M22)</f>
+        <v>4.7588993621274769</v>
+      </c>
+      <c r="O22" s="120">
+        <f>SUM(N19:N22)</f>
+        <v>4.7588993621274769</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N23" s="121">
+        <f t="shared" si="7"/>
+        <v>-4.7588993621274769</v>
+      </c>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N24" s="122">
+        <f>IFERROR(M24-M23,M24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="118"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N25" s="122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="118"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>6.1760467062892996E-8</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>4.5635155582387502E-7</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.99999763129116293</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>1.8505968140464941E-6</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>22.600002368711642</v>
+      </c>
+      <c r="N26" s="123">
+        <f t="shared" si="7"/>
+        <v>21.213708007591752</v>
+      </c>
+      <c r="O26" s="120">
+        <f>SUM(N23:N26)</f>
+        <v>16.454808645464276</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>EXP(C34/$G$3)/SUM(EXP($C34/$G$3),EXP($D34/$G$3),EXP($E34/$G$3),EXP($F34/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:K49" si="8">EXP(D34/$G$3)/SUM(EXP($C34/$G$3),EXP($D34/$G$3),EXP($E34/$G$3),EXP($F34/$G$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="M34">
+        <f>LN(SUM(EXP(C34/$G$3),EXP(D34/$G$3),EXP(E34/$G$3),EXP(F34/$G$3)))</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N34">
+        <f>$G$31*IFERROR(M34-M33,M34)</f>
+        <v>6.9314718055994531</v>
+      </c>
+      <c r="Q34">
+        <f>SUM($N$34:N34)</f>
+        <v>6.9314718055994531</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:K50" si="9">EXP(C35/$G$3)/SUM(EXP($C35/$G$3),EXP($D35/$G$3),EXP($E35/$G$3),EXP($F35/$G$3))</f>
+        <v>0.28933575594016492</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M74" si="10">LN(SUM(EXP(C35/$G$3),EXP(D35/$G$3),EXP(E35/$G$3),EXP(F35/$G$3)))</f>
+        <v>1.4401674799598645</v>
+      </c>
+      <c r="N35" s="114">
+        <f t="shared" ref="N35:N74" si="11">$G$31*IFERROR(M35-M34,M35)</f>
+        <v>0.26936559419986961</v>
+      </c>
+      <c r="Q35">
+        <f>SUM($N$34:N35)</f>
+        <v>7.2008373997993225</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>0.28073777942761796</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>0.34289389811265397</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0.18818416122986403</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>0.18818416122986403</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="10"/>
+        <v>1.6703342146186519</v>
+      </c>
+      <c r="N36" s="114">
+        <f t="shared" si="11"/>
+        <v>1.1508336732939373</v>
+      </c>
+      <c r="Q36">
+        <f>SUM($N$34:N36)</f>
+        <v>8.3516710730932591</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>0.23554806192697511</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>0.28769905251688987</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>0.42919655203268925</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>4.755633352344573E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="10"/>
+        <v>3.0458403017324911</v>
+      </c>
+      <c r="N37" s="114">
+        <f t="shared" si="11"/>
+        <v>6.877530435569196</v>
+      </c>
+      <c r="Q37">
+        <f>SUM($N$34:N37)</f>
+        <v>15.229201508662456</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>27</v>
+      </c>
+      <c r="F38">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>0.14295952607174461</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>0.31816227639055356</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>0.47464234177719605</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>6.4235855760505917E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="10"/>
+        <v>6.1451937232473677</v>
+      </c>
+      <c r="N38" s="114">
+        <f t="shared" si="11"/>
+        <v>15.496767107574383</v>
+      </c>
+      <c r="O38">
+        <f>SUM(N35:N38)</f>
+        <v>23.794496810637384</v>
+      </c>
+      <c r="Q38">
+        <f>SUM($N$34:N38)</f>
+        <v>30.725968616236841</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>5.1542263800937928E-3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>1.4010639908773201E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>4.6516962659485954E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>0.93431817105164705</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="10"/>
+        <v>11.467938244531888</v>
+      </c>
+      <c r="N39" s="115">
+        <f t="shared" si="11"/>
+        <v>26.613722606422602</v>
+      </c>
+      <c r="Q39">
+        <f>SUM($N$34:N39)</f>
+        <v>57.33969122265944</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+      <c r="D40">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>4.1392319099229483E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>0.37356623864343058</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>0.55729534101322264</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>2.7746101244117367E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="10"/>
+        <v>11.584659944367623</v>
+      </c>
+      <c r="N40" s="115">
+        <f t="shared" si="11"/>
+        <v>0.58360849917867164</v>
+      </c>
+      <c r="Q40">
+        <f>SUM($N$34:N40)</f>
+        <v>57.923299721838113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+      <c r="E41">
+        <v>70</v>
+      </c>
+      <c r="F41">
+        <v>42</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>2.1775635866085013E-3</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>0.87849185049918066</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>0.11889094340836263</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>4.3964250584820985E-4</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="10"/>
+        <v>16.1295486480068</v>
+      </c>
+      <c r="N41" s="115">
+        <f t="shared" si="11"/>
+        <v>22.724443518195887</v>
+      </c>
+      <c r="Q41">
+        <f>SUM($N$34:N41)</f>
+        <v>80.647743240034004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
+        <v>6.1760467062892996E-8</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>4.5635155582387502E-7</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>0.99999763129116293</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>1.8505968140464941E-6</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="10"/>
+        <v>22.600002368711642</v>
+      </c>
+      <c r="N42" s="115">
+        <f t="shared" si="11"/>
+        <v>32.352268603524209</v>
+      </c>
+      <c r="O42">
+        <f>SUM(N39:N42)</f>
+        <v>82.274043227321371</v>
+      </c>
+      <c r="Q42">
+        <f>SUM($N$34:N42)</f>
+        <v>113.00001184355821</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="7">
+        <v>10</v>
+      </c>
+      <c r="C43" s="7">
+        <v>30</v>
+      </c>
+      <c r="D43" s="7">
+        <v>11</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7">
+        <f t="shared" si="9"/>
+        <v>0.96861313999388043</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="8"/>
+        <v>2.1668623571687289E-2</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="8"/>
+        <v>4.3748196488605767E-3</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="8"/>
+        <v>5.3434167855716148E-3</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0318899831398376</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="11"/>
+        <v>-82.840561927859028</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="Q43">
+        <f>SUM($N$34:N43)</f>
+        <v>30.159449915699184</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="125">
+        <v>11</v>
+      </c>
+      <c r="C44" s="126">
+        <v>30</v>
+      </c>
+      <c r="D44" s="126">
+        <v>0</v>
+      </c>
+      <c r="E44" s="126">
+        <v>0</v>
+      </c>
+      <c r="F44" s="126">
+        <v>0</v>
+      </c>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127">
+        <f t="shared" si="9"/>
+        <v>0.9926186332070156</v>
+      </c>
+      <c r="I44" s="127">
+        <f t="shared" si="8"/>
+        <v>2.4604555976614757E-3</v>
+      </c>
+      <c r="J44" s="127">
+        <f t="shared" si="8"/>
+        <v>2.4604555976614757E-3</v>
+      </c>
+      <c r="K44" s="127">
+        <f t="shared" si="8"/>
+        <v>2.4604555976614757E-3</v>
+      </c>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127">
+        <f t="shared" si="10"/>
+        <v>6.007408743884282</v>
+      </c>
+      <c r="N44" s="128">
+        <f t="shared" si="11"/>
+        <v>-0.12240619627777782</v>
+      </c>
+      <c r="O44" s="113"/>
+      <c r="Q44" s="125">
+        <f>SUM($N$34:N44)</f>
+        <v>30.037043719421405</v>
+      </c>
+      <c r="R44" s="125">
+        <f>Q44</f>
+        <v>30.037043719421405</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <f>C44-1</f>
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>0.99099908802515901</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>3.000303991613675E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>3.000303991613675E-3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>3.000303991613675E-3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="10"/>
+        <v>5.8090416649097278</v>
+      </c>
+      <c r="N45" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.99183539487277095</v>
+      </c>
+      <c r="Q45">
+        <f>SUM($N$34:N45)</f>
+        <v>29.045208324548632</v>
+      </c>
+      <c r="R45">
+        <f>R44-(C44-C45)</f>
+        <v>29.037043719421405</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C74" si="12">C45-1</f>
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
+        <v>0.98902812633117654</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>3.6572912229411551E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>3.6572912229411551E-3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>3.6572912229411551E-3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="10"/>
+        <v>5.611032508601852</v>
+      </c>
+      <c r="N46" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.99004578153937928</v>
+      </c>
+      <c r="Q46">
+        <f>SUM($N$34:N46)</f>
+        <v>28.055162543009253</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ref="R46:R74" si="13">R45-(C45-C46)</f>
+        <v>28.037043719421405</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>0.98663139828733637</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>4.4562005708878704E-3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>4.4562005708878704E-3</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>4.4562005708878704E-3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>5.4134587659500593</v>
+      </c>
+      <c r="N47" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.98786871325896364</v>
+      </c>
+      <c r="Q47">
+        <f>SUM($N$34:N47)</f>
+        <v>27.067293829750291</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="13"/>
+        <v>27.037043719421405</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>0.98371974004618357</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>5.426753317938811E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>5.426753317938811E-3</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>5.426753317938811E-3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="10"/>
+        <v>5.2164142395241928</v>
+      </c>
+      <c r="N48" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.98522263212933225</v>
+      </c>
+      <c r="Q48">
+        <f>SUM($N$34:N48)</f>
+        <v>26.082071197620959</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="13"/>
+        <v>26.037043719421405</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>0.98018666265349097</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>6.6044457821696888E-3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>6.6044457821696888E-3</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>6.6044457821696888E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="10"/>
+        <v>5.020012253359627</v>
+      </c>
+      <c r="N49" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.98200993082282917</v>
+      </c>
+      <c r="Q49">
+        <f>SUM($N$34:N49)</f>
+        <v>25.100061266798129</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="13"/>
+        <v>25.037043719421405</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>0.97590563055056345</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="9"/>
+        <v>8.0314564831455316E-3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="9"/>
+        <v>8.0314564831455316E-3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>8.0314564831455316E-3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>4.8243893872534933</v>
+      </c>
+      <c r="N50" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.97811433053066832</v>
+      </c>
+      <c r="Q50">
+        <f>SUM($N$34:N50)</f>
+        <v>24.121946936267459</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="13"/>
+        <v>24.037043719421405</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="H51:K66" si="14">EXP(C51/$G$3)/SUM(EXP($C51/$G$3),EXP($D51/$G$3),EXP($E51/$G$3),EXP($F51/$G$3))</f>
+        <v>0.9707272280523237</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="14"/>
+        <v>9.7575906492254252E-3</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="14"/>
+        <v>9.7575906492254252E-3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="14"/>
+        <v>9.7575906492254252E-3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="10"/>
+        <v>4.6297097687425195</v>
+      </c>
+      <c r="N51" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.97339809255486909</v>
+      </c>
+      <c r="Q51">
+        <f>SUM($N$34:N51)</f>
+        <v>23.148548843712589</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="13"/>
+        <v>23.037043719421405</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="14"/>
+        <v>0.96447638671543401</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="14"/>
+        <v>1.1841204428188664E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="14"/>
+        <v>1.1841204428188664E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="14"/>
+        <v>1.1841204428188664E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="10"/>
+        <v>4.4361699293461783</v>
+      </c>
+      <c r="N52" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.96769919698170614</v>
+      </c>
+      <c r="Q52">
+        <f>SUM($N$34:N52)</f>
+        <v>22.180849646730884</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="13"/>
+        <v>22.037043719421405</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="14"/>
+        <v>0.95694995051126786</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="14"/>
+        <v>1.4350016496244053E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="14"/>
+        <v>1.4350016496244053E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="14"/>
+        <v>1.4350016496244053E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="10"/>
+        <v>4.2440041872131218</v>
+      </c>
+      <c r="N53" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.96082871066528241</v>
+      </c>
+      <c r="Q53">
+        <f>SUM($N$34:N53)</f>
+        <v>21.220020936065602</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="13"/>
+        <v>21.037043719421405</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>0.94791499382751565</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="14"/>
+        <v>1.7361668724161467E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="14"/>
+        <v>1.7361668724161467E-2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="14"/>
+        <v>1.7361668724161467E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="10"/>
+        <v>4.0534904497059339</v>
+      </c>
+      <c r="N54" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.9525686875359396</v>
+      </c>
+      <c r="Q54">
+        <f>SUM($N$34:N54)</f>
+        <v>20.267452248529661</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="13"/>
+        <v>20.037043719421405</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="14"/>
+        <v>0.93710847997031765</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="14"/>
+        <v>2.0963840009894107E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="14"/>
+        <v>2.0963840009894107E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="14"/>
+        <v>2.0963840009894107E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="10"/>
+        <v>3.8649562297306539</v>
+      </c>
+      <c r="N55" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.94267109987639985</v>
+      </c>
+      <c r="Q55">
+        <f>SUM($N$34:N55)</f>
+        <v>19.324781148653262</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="13"/>
+        <v>19.037043719421405</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="14"/>
+        <v>0.92423904645882615</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="14"/>
+        <v>2.5253651180391298E-2</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="14"/>
+        <v>2.5253651180391298E-2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="14"/>
+        <v>2.5253651180391298E-2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="10"/>
+        <v>3.6787845325108988</v>
+      </c>
+      <c r="N56" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.93085848609877564</v>
+      </c>
+      <c r="Q56">
+        <f>SUM($N$34:N56)</f>
+        <v>18.393922662554488</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="13"/>
+        <v>18.037043719421405</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="14"/>
+        <v>0.90899190344385294</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="14"/>
+        <v>3.0336032185382365E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="14"/>
+        <v>3.0336032185382365E-2</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="14"/>
+        <v>3.0336032185382365E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>3.4954190919467987</v>
+      </c>
+      <c r="N57" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.91682720282050045</v>
+      </c>
+      <c r="Q57">
+        <f>SUM($N$34:N57)</f>
+        <v>17.477095459733988</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="13"/>
+        <v>17.037043719421405</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="14"/>
+        <v>0.89103798384955657</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="14"/>
+        <v>3.6320672050147801E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="14"/>
+        <v>3.6320672050147801E-2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="14"/>
+        <v>3.6320672050147801E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>3.3153682218368692</v>
+      </c>
+      <c r="N58" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.90025435054964742</v>
+      </c>
+      <c r="Q58">
+        <f>SUM($N$34:N58)</f>
+        <v>16.57684110918434</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="13"/>
+        <v>16.037043719421405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="14"/>
+        <v>0.87004850656140775</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="14"/>
+        <v>4.3317164479530733E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="14"/>
+        <v>4.3317164479530733E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="14"/>
+        <v>4.3317164479530733E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>3.1392063142194564</v>
+      </c>
+      <c r="N59" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.88080953808706397</v>
+      </c>
+      <c r="Q59">
+        <f>SUM($N$34:N59)</f>
+        <v>15.696031571097276</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="13"/>
+        <v>15.037043719421405</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="14"/>
+        <v>0.84571589109763279</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="14"/>
+        <v>5.1428036300789071E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="14"/>
+        <v>5.1428036300789071E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="14"/>
+        <v>5.1428036300789071E-2</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="10"/>
+        <v>2.9675718019038646</v>
+      </c>
+      <c r="N60" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.85817256157795896</v>
+      </c>
+      <c r="Q60">
+        <f>SUM($N$34:N60)</f>
+        <v>14.837859009519317</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="13"/>
+        <v>14.037043719421405</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="14"/>
+        <v>0.81778135720927791</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="14"/>
+        <v>6.073954759690741E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="14"/>
+        <v>6.073954759690741E-2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="14"/>
+        <v>6.073954759690741E-2</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="10"/>
+        <v>2.8011602675827989</v>
+      </c>
+      <c r="N61" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.83205767160532851</v>
+      </c>
+      <c r="Q61">
+        <f>SUM($N$34:N61)</f>
+        <v>14.005801337913988</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="13"/>
+        <v>13.037043719421405</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="14"/>
+        <v>0.78606843994764464</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="14"/>
+        <v>7.1310520017451792E-2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="14"/>
+        <v>7.1310520017451792E-2</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="14"/>
+        <v>7.1310520017451792E-2</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="10"/>
+        <v>2.6407114166188883</v>
+      </c>
+      <c r="N62" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.80224425481955297</v>
+      </c>
+      <c r="Q62">
+        <f>SUM($N$34:N62)</f>
+        <v>13.203557083094434</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="13"/>
+        <v>12.037043719421405</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="14"/>
+        <v>0.75052003058947292</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="14"/>
+        <v>8.3159989803509027E-2</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="14"/>
+        <v>8.3159989803509027E-2</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="14"/>
+        <v>8.3159989803509027E-2</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="10"/>
+        <v>2.486988938605259</v>
+      </c>
+      <c r="N63" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.7686123900681463</v>
+      </c>
+      <c r="Q63">
+        <f>SUM($N$34:N63)</f>
+        <v>12.434944693026289</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="13"/>
+        <v>11.037043719421405</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="14"/>
+        <v>0.71123459422759383</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="14"/>
+        <v>9.6255135257468719E-2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="14"/>
+        <v>9.6255135257468719E-2</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="14"/>
+        <v>9.6255135257468719E-2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="10"/>
+        <v>2.3407529539131313</v>
+      </c>
+      <c r="N64" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.73117992346063865</v>
+      </c>
+      <c r="Q64">
+        <f>SUM($N$34:N64)</f>
+        <v>11.70376476956565</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="13"/>
+        <v>10.037043719421405</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="14"/>
+        <v>0.66849537379248503</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="14"/>
+        <v>0.11050154206917169</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="14"/>
+        <v>0.11050154206917169</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="14"/>
+        <v>0.11050154206917169</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="10"/>
+        <v>2.2027258027445855</v>
+      </c>
+      <c r="N65" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.69013575584272902</v>
+      </c>
+      <c r="Q65">
+        <f>SUM($N$34:N65)</f>
+        <v>11.013629013722921</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="13"/>
+        <v>9.0370437194214048</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="14"/>
+        <v>0.62278539305362235</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="14"/>
+        <v>0.12573820231545921</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="14"/>
+        <v>0.12573820231545921</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="14"/>
+        <v>0.12573820231545921</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="10"/>
+        <v>2.0735532929684619</v>
+      </c>
+      <c r="N66" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.645862548880618</v>
+      </c>
+      <c r="Q66">
+        <f>SUM($N$34:N66)</f>
+        <v>10.367766464842303</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="13"/>
+        <v>8.0370437194214048</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:K74" si="15">EXP(C67/$G$3)/SUM(EXP($C67/$G$3),EXP($D67/$G$3),EXP($E67/$G$3),EXP($F67/$G$3))</f>
+        <v>0.5747817192853143</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="15"/>
+        <v>0.14173942690489524</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="15"/>
+        <v>0.14173942690489524</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="15"/>
+        <v>0.14173942690489524</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>1.9537649288924173</v>
+      </c>
+      <c r="N67" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.59894182038022326</v>
+      </c>
+      <c r="Q67">
+        <f>SUM($N$34:N67)</f>
+        <v>9.7688246444620788</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="13"/>
+        <v>7.0370437194214048</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>35</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>0.52532523738484416</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="15"/>
+        <v>0.15822492087171863</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="15"/>
+        <v>0.15822492087171863</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="15"/>
+        <v>0.15822492087171863</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>1.8437377084206332</v>
+      </c>
+      <c r="N68" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.55013610235892019</v>
+      </c>
+      <c r="Q68">
+        <f>SUM($N$34:N68)</f>
+        <v>9.218688542103159</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="13"/>
+        <v>6.0370437194214048</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>36</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>0.4753668864186717</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="15"/>
+        <v>0.17487770452710946</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="15"/>
+        <v>0.17487770452710946</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="15"/>
+        <v>0.17487770452710946</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>1.743668380628679</v>
+      </c>
+      <c r="N69" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.50034663895977105</v>
+      </c>
+      <c r="Q69">
+        <f>SUM($N$34:N69)</f>
+        <v>8.7183419031433882</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="13"/>
+        <v>5.0370437194214048</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="15"/>
+        <v>0.42589675575166169</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="15"/>
+        <v>0.19136774808277945</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="15"/>
+        <v>0.19136774808277945</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="15"/>
+        <v>0.19136774808277945</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>1.6535583194765306</v>
+      </c>
+      <c r="N70" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.45055030576074184</v>
+      </c>
+      <c r="Q70">
+        <f>SUM($N$34:N70)</f>
+        <v>8.2677915973826472</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="13"/>
+        <v>4.0370437194214048</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>0.3778668414894607</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="15"/>
+        <v>0.20737771950351308</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>0.20737771950351308</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="15"/>
+        <v>0.20737771950351308</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>1.5732134166165241</v>
+      </c>
+      <c r="N71" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.40172451430003253</v>
+      </c>
+      <c r="Q71">
+        <f>SUM($N$34:N71)</f>
+        <v>7.8660670830826147</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="13"/>
+        <v>3.0370437194214048</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>39</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>0.33211997307567492</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="15"/>
+        <v>0.2226266756414417</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="15"/>
+        <v>0.2226266756414417</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="15"/>
+        <v>0.2226266756414417</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>1.5022590106563736</v>
+      </c>
+      <c r="N72" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.35477202980075284</v>
+      </c>
+      <c r="Q72">
+        <f>SUM($N$34:N72)</f>
+        <v>7.5112950532818621</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="13"/>
+        <v>2.0370437194214048</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="15"/>
+        <v>0.28933575594016492</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="15"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="15"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="15"/>
+        <v>0.23688808135327838</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>1.4401674799598645</v>
+      </c>
+      <c r="N73" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.31045765348254539</v>
+      </c>
+      <c r="Q73">
+        <f>SUM($N$34:N73)</f>
+        <v>7.2008373997993171</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="13"/>
+        <v>1.0370437194214048</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>41</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="N74" s="129">
+        <f t="shared" si="11"/>
+        <v>-0.26936559419986961</v>
+      </c>
+      <c r="Q74">
+        <f>SUM($N$34:N74)</f>
+        <v>6.9314718055994478</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="13"/>
+        <v>3.704371942140483E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" location="Example_7:_Rapidly-adjusted_.28micro.29payments_to_a_pre-determined_party"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,10 +8165,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="143"/>
+      <c r="G4" s="165"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -3368,7 +8195,7 @@
       <c r="G5" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="153" t="s">
+      <c r="H5" s="148" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -3404,9 +8231,9 @@
       <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -3444,14 +8271,14 @@
         <f>SUM(E10:E11)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F7" s="144" t="str">
+      <c r="F7" s="142" t="str">
         <f t="shared" ref="F7:F16" si="0">B7</f>
         <v>a</v>
       </c>
-      <c r="G7" s="154">
-        <v>0</v>
-      </c>
-      <c r="H7" s="153">
+      <c r="G7" s="149">
+        <v>0</v>
+      </c>
+      <c r="H7" s="148">
         <f t="shared" ref="H7:H16" si="1">IF(G7=0,0,1)</f>
         <v>0</v>
       </c>
@@ -3463,11 +8290,11 @@
         <f>IF(SUM($G$7:$G$9)=0,0,SUM($G$7:$G$9))</f>
         <v>0.2</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="146">
         <f t="shared" ref="K7:K16" si="2">IF(G7&lt;&gt;0,G7,(G7-J7)*(C7/I7))</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="L7" s="151">
+      <c r="L7" s="146">
         <f>C7+K7</f>
         <v>0.10000000000000003</v>
       </c>
@@ -3517,14 +8344,14 @@
         <f>E10/(E10+E11)</f>
         <v>0.69999999999999984</v>
       </c>
-      <c r="F8" s="144" t="str">
+      <c r="F8" s="142" t="str">
         <f t="shared" si="0"/>
         <v>b|a</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="149">
         <v>0.2</v>
       </c>
-      <c r="H8" s="153">
+      <c r="H8" s="148">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3536,7 +8363,7 @@
         <f>IF(SUM($G$7:$G$9)=0,0,SUM($G$7:$G$9))</f>
         <v>0.2</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="146">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
@@ -3590,14 +8417,14 @@
         <f>E12/(E12+E13)</f>
         <v>0.29999999999999993</v>
       </c>
-      <c r="F9" s="144" t="str">
+      <c r="F9" s="142" t="str">
         <f t="shared" si="0"/>
         <v>b|~a</v>
       </c>
-      <c r="G9" s="154">
-        <v>0</v>
-      </c>
-      <c r="H9" s="153">
+      <c r="G9" s="149">
+        <v>0</v>
+      </c>
+      <c r="H9" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3609,7 +8436,7 @@
         <f>IF(SUM($G$7:$G$9)=0,0,SUM($G$7:$G$9))</f>
         <v>0.2</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="146">
         <f t="shared" si="2"/>
         <v>-0.19999999999999996</v>
       </c>
@@ -3664,14 +8491,14 @@
         <f>D10</f>
         <v>0.21</v>
       </c>
-      <c r="F10" s="144" t="str">
+      <c r="F10" s="142" t="str">
         <f t="shared" si="0"/>
         <v>a &amp; b</v>
       </c>
-      <c r="G10" s="154">
-        <v>0</v>
-      </c>
-      <c r="H10" s="153">
+      <c r="G10" s="149">
+        <v>0</v>
+      </c>
+      <c r="H10" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3711,7 +8538,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10" s="150">
+      <c r="R10" s="145">
         <f t="shared" si="3"/>
         <v>9.0000000000000024E-2</v>
       </c>
@@ -3738,14 +8565,14 @@
         <f>D11</f>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="F11" s="144" t="str">
+      <c r="F11" s="142" t="str">
         <f t="shared" si="0"/>
         <v>a &amp; ~b</v>
       </c>
-      <c r="G11" s="154">
-        <v>0</v>
-      </c>
-      <c r="H11" s="153">
+      <c r="G11" s="149">
+        <v>0</v>
+      </c>
+      <c r="H11" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3785,7 +8612,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R11" s="151">
+      <c r="R11" s="146">
         <f t="shared" si="3"/>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3812,14 +8639,14 @@
         <f>D12</f>
         <v>0.21</v>
       </c>
-      <c r="F12" s="144" t="str">
+      <c r="F12" s="142" t="str">
         <f t="shared" si="0"/>
         <v>~a &amp; b</v>
       </c>
-      <c r="G12" s="154">
-        <v>0</v>
-      </c>
-      <c r="H12" s="153">
+      <c r="G12" s="149">
+        <v>0</v>
+      </c>
+      <c r="H12" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3859,7 +8686,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R12" s="151">
+      <c r="R12" s="146">
         <f t="shared" si="3"/>
         <v>9.0000000000000024E-2</v>
       </c>
@@ -3886,14 +8713,14 @@
         <f>D13</f>
         <v>0.49000000000000005</v>
       </c>
-      <c r="F13" s="144" t="str">
+      <c r="F13" s="142" t="str">
         <f t="shared" si="0"/>
         <v>~a &amp; ~b</v>
       </c>
-      <c r="G13" s="154">
-        <v>0</v>
-      </c>
-      <c r="H13" s="153">
+      <c r="G13" s="149">
+        <v>0</v>
+      </c>
+      <c r="H13" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3933,7 +8760,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R13" s="152">
+      <c r="R13" s="147">
         <f t="shared" si="3"/>
         <v>0.80999999999999983</v>
       </c>
@@ -3960,14 +8787,14 @@
         <f>E10+E12</f>
         <v>0.42</v>
       </c>
-      <c r="F14" s="144" t="str">
+      <c r="F14" s="142" t="str">
         <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="G14" s="154">
-        <v>0</v>
-      </c>
-      <c r="H14" s="153">
+      <c r="G14" s="149">
+        <v>0</v>
+      </c>
+      <c r="H14" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4007,7 +8834,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R14" s="149">
+      <c r="R14" s="144">
         <f t="shared" si="3"/>
         <v>0.18000000000000005</v>
       </c>
@@ -4034,14 +8861,14 @@
         <f>E10/(E10+E12)</f>
         <v>0.5</v>
       </c>
-      <c r="F15" s="144" t="str">
+      <c r="F15" s="142" t="str">
         <f t="shared" si="0"/>
         <v>a|b</v>
       </c>
-      <c r="G15" s="154">
-        <v>0</v>
-      </c>
-      <c r="H15" s="153">
+      <c r="G15" s="149">
+        <v>0</v>
+      </c>
+      <c r="H15" s="148">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4081,7 +8908,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R15" s="149">
+      <c r="R15" s="144">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -4093,14 +8920,14 @@
       <c r="U15"/>
     </row>
     <row r="16" spans="2:21" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="156" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="13">
         <f>C11/(C11+C13)</f>
         <v>0.15517241379310348</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="157">
         <f>C16</f>
         <v>0.15517241379310348</v>
       </c>
@@ -4108,14 +8935,14 @@
         <f>E11/(E11+E13)</f>
         <v>0.15517241379310348</v>
       </c>
-      <c r="F16" s="163" t="str">
+      <c r="F16" s="158" t="str">
         <f t="shared" si="0"/>
         <v>a|~b</v>
       </c>
-      <c r="G16" s="164">
-        <v>0</v>
-      </c>
-      <c r="H16" s="160">
+      <c r="G16" s="159">
+        <v>0</v>
+      </c>
+      <c r="H16" s="155">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4135,7 +8962,7 @@
         <f>L11/(L11+L13)</f>
         <v>1.219512195121953E-2</v>
       </c>
-      <c r="M16" s="162">
+      <c r="M16" s="157">
         <f>D16+K16</f>
         <v>0.15517241379310348</v>
       </c>
@@ -4143,23 +8970,23 @@
         <f>N11/(N11+N13)</f>
         <v>0.15517241379310348</v>
       </c>
-      <c r="O16" s="165">
+      <c r="O16" s="160">
         <f t="shared" si="5"/>
         <v>-0.14297729184188396</v>
       </c>
-      <c r="P16" s="165">
+      <c r="P16" s="160">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="165">
+      <c r="Q16" s="160">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R16" s="166">
+      <c r="R16" s="161">
         <f t="shared" si="3"/>
         <v>1.2195121951219523E-2</v>
       </c>
-      <c r="S16" s="167" t="str">
+      <c r="S16" s="162" t="str">
         <f t="shared" si="4"/>
         <v>a|~b</v>
       </c>
@@ -4171,7 +8998,7 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="145"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="120"/>
       <c r="H17"/>
       <c r="I17"/>
@@ -4257,19 +9084,19 @@
       <c r="U19" s="11"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="R20" s="155">
+      <c r="R20" s="150">
         <f>INDEX($R$10:$R$13,COLUMN(Q20)-COLUMN($P$20))</f>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="S20" s="156">
+      <c r="S20" s="151">
         <f>INDEX($R$10:$R$13,COLUMN(R20)-COLUMN($P$20))</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="T20" s="156">
+      <c r="T20" s="151">
         <f>INDEX($R$10:$R$13,COLUMN(S20)-COLUMN($P$20))</f>
         <v>9.0000000000000024E-2</v>
       </c>
-      <c r="U20" s="157">
+      <c r="U20" s="152">
         <f>INDEX($R$10:$R$13,COLUMN(T20)-COLUMN($P$20))</f>
         <v>0.80999999999999983</v>
       </c>
@@ -4281,12 +9108,12 @@
       <c r="U21" s="118"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="146" t="s">
+      <c r="R22" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="148"/>
+      <c r="S22" s="167"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4296,2927 +9123,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>EXP(C6/$G$3)/SUM(EXP($C6/$G$3),EXP($D6/$G$3),EXP($E6/$G$3),EXP($F6/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:K14" si="0">EXP(D6/$G$3)/SUM(EXP($C6/$G$3),EXP($D6/$G$3),EXP($E6/$G$3),EXP($F6/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="M6">
-        <f>LN(SUM(EXP(C6/$G$3),EXP(D6/$G$3),EXP(E6/$G$3),EXP(F6/$G$3)))</f>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N6">
-        <f>IFERROR(M6-M5,M6)</f>
-        <v>1.3862943611198906</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H14" si="1">EXP(C7/$G$3)/SUM(EXP($C7/$G$3),EXP($D7/$G$3),EXP($E7/$G$3),EXP($F7/$G$3))</f>
-        <v>0.28933575594016492</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M14" si="2">LN(SUM(EXP(C7/$G$3),EXP(D7/$G$3),EXP(E7/$G$3),EXP(F7/$G$3)))</f>
-        <v>1.4401674799598645</v>
-      </c>
-      <c r="N7" s="114">
-        <f t="shared" ref="N7:N14" si="3">IFERROR(M7-M6,M7)</f>
-        <v>5.3873118839973921E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0.28073777942761796</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.34289389811265397</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.18818416122986403</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0.18818416122986403</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>1.6703342146186519</v>
-      </c>
-      <c r="N8" s="114">
-        <f t="shared" si="3"/>
-        <v>0.23016673465878745</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>0.23554806192697511</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.28769905251688987</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.42919655203268925</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>4.755633352344573E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>3.0458403017324911</v>
-      </c>
-      <c r="N9" s="114">
-        <f t="shared" si="3"/>
-        <v>1.3755060871138391</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>0.14295952607174461</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0.31816227639055356</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.47464234177719605</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>6.4235855760505917E-2</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>6.1451937232473677</v>
-      </c>
-      <c r="N10" s="114">
-        <f t="shared" si="3"/>
-        <v>3.0993534215148766</v>
-      </c>
-      <c r="O10">
-        <f>SUM(N7:N10)</f>
-        <v>4.7588993621274769</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>57</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>5.1542263800937928E-3</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1.4010639908773201E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>4.6516962659485954E-2</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0.93431817105164705</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>11.467938244531888</v>
-      </c>
-      <c r="N11" s="115">
-        <f t="shared" si="3"/>
-        <v>5.3227445212845206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>55</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>4.1392319099229483E-2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>0.37356623864343058</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.55729534101322264</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>2.7746101244117367E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>11.584659944367623</v>
-      </c>
-      <c r="N12" s="115">
-        <f>IFERROR(M12-M11,M12)</f>
-        <v>0.11672169983573433</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
-      </c>
-      <c r="F13">
-        <v>42</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>2.1775635866085013E-3</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.87849185049918066</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.11889094340836263</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>4.3964250584820985E-4</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>16.1295486480068</v>
-      </c>
-      <c r="N13" s="115">
-        <f t="shared" si="3"/>
-        <v>4.5448887036391774</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>113</v>
-      </c>
-      <c r="F14">
-        <v>47</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>6.1760467062892996E-8</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>4.5635155582387502E-7</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.99999763129116293</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>1.8505968140464941E-6</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>22.600002368711642</v>
-      </c>
-      <c r="N14" s="115">
-        <f t="shared" si="3"/>
-        <v>6.4704537207048425</v>
-      </c>
-      <c r="O14">
-        <f>SUM(N11:N14)</f>
-        <v>16.454808645464276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>EXP(C18/$G$3)/SUM(EXP($C18/$G$3),EXP($D18/$G$3),EXP($E18/$G$3),EXP($F18/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:K26" si="4">EXP(D18/$G$3)/SUM(EXP($C18/$G$3),EXP($D18/$G$3),EXP($E18/$G$3),EXP($F18/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M18">
-        <f>LN(SUM(EXP(C18/$G$3),EXP(D18/$G$3),EXP(E18/$G$3),EXP(F18/$G$3)))</f>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N18">
-        <f>IFERROR(M18-M17,M18)</f>
-        <v>1.3862943611198906</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H26" si="5">EXP(C19/$G$3)/SUM(EXP($C19/$G$3),EXP($D19/$G$3),EXP($E19/$G$3),EXP($F19/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M26" si="6">LN(SUM(EXP(C19/$G$3),EXP(D19/$G$3),EXP(E19/$G$3),EXP(F19/$G$3)))</f>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N19" s="116">
-        <f t="shared" ref="N19:N26" si="7">IFERROR(M19-M18,M19)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N20" s="117">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="118"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N21" s="117">
-        <f>IFERROR(M21-M20,M21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="118"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>0.14295952607174461</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
-        <v>0.31816227639055356</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="4"/>
-        <v>0.47464234177719605</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>6.4235855760505917E-2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>6.1451937232473677</v>
-      </c>
-      <c r="N22" s="119">
-        <f>IFERROR(M22-M21,M22)</f>
-        <v>4.7588993621274769</v>
-      </c>
-      <c r="O22" s="120">
-        <f>SUM(N19:N22)</f>
-        <v>4.7588993621274769</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N23" s="121">
-        <f t="shared" si="7"/>
-        <v>-4.7588993621274769</v>
-      </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="6"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N24" s="122">
-        <f>IFERROR(M24-M23,M24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="118"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="6"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N25" s="122">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="118"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>40</v>
-      </c>
-      <c r="E26">
-        <v>113</v>
-      </c>
-      <c r="F26">
-        <v>47</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>6.1760467062892996E-8</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>4.5635155582387502E-7</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="4"/>
-        <v>0.99999763129116293</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>1.8505968140464941E-6</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>22.600002368711642</v>
-      </c>
-      <c r="N26" s="123">
-        <f t="shared" si="7"/>
-        <v>21.213708007591752</v>
-      </c>
-      <c r="O26" s="120">
-        <f>SUM(N23:N26)</f>
-        <v>16.454808645464276</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="124" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f>EXP(C34/$G$3)/SUM(EXP($C34/$G$3),EXP($D34/$G$3),EXP($E34/$G$3),EXP($F34/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ref="I34:K49" si="8">EXP(D34/$G$3)/SUM(EXP($C34/$G$3),EXP($D34/$G$3),EXP($E34/$G$3),EXP($F34/$G$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
-      </c>
-      <c r="M34">
-        <f>LN(SUM(EXP(C34/$G$3),EXP(D34/$G$3),EXP(E34/$G$3),EXP(F34/$G$3)))</f>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N34">
-        <f>$G$31*IFERROR(M34-M33,M34)</f>
-        <v>6.9314718055994531</v>
-      </c>
-      <c r="Q34">
-        <f>SUM($N$34:N34)</f>
-        <v>6.9314718055994531</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35:K50" si="9">EXP(C35/$G$3)/SUM(EXP($C35/$G$3),EXP($D35/$G$3),EXP($E35/$G$3),EXP($F35/$G$3))</f>
-        <v>0.28933575594016492</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="8"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="8"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ref="M35:M74" si="10">LN(SUM(EXP(C35/$G$3),EXP(D35/$G$3),EXP(E35/$G$3),EXP(F35/$G$3)))</f>
-        <v>1.4401674799598645</v>
-      </c>
-      <c r="N35" s="114">
-        <f t="shared" ref="N35:N74" si="11">$G$31*IFERROR(M35-M34,M35)</f>
-        <v>0.26936559419986961</v>
-      </c>
-      <c r="Q35">
-        <f>SUM($N$34:N35)</f>
-        <v>7.2008373997993225</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>0.28073777942761796</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="8"/>
-        <v>0.34289389811265397</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="8"/>
-        <v>0.18818416122986403</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="8"/>
-        <v>0.18818416122986403</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="10"/>
-        <v>1.6703342146186519</v>
-      </c>
-      <c r="N36" s="114">
-        <f t="shared" si="11"/>
-        <v>1.1508336732939373</v>
-      </c>
-      <c r="Q36">
-        <f>SUM($N$34:N36)</f>
-        <v>8.3516710730932591</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="9"/>
-        <v>0.23554806192697511</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="8"/>
-        <v>0.28769905251688987</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="8"/>
-        <v>0.42919655203268925</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>4.755633352344573E-2</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="10"/>
-        <v>3.0458403017324911</v>
-      </c>
-      <c r="N37" s="114">
-        <f t="shared" si="11"/>
-        <v>6.877530435569196</v>
-      </c>
-      <c r="Q37">
-        <f>SUM($N$34:N37)</f>
-        <v>15.229201508662456</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>21</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>27</v>
-      </c>
-      <c r="F38">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="9"/>
-        <v>0.14295952607174461</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="8"/>
-        <v>0.31816227639055356</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="8"/>
-        <v>0.47464234177719605</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="8"/>
-        <v>6.4235855760505917E-2</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="10"/>
-        <v>6.1451937232473677</v>
-      </c>
-      <c r="N38" s="114">
-        <f t="shared" si="11"/>
-        <v>15.496767107574383</v>
-      </c>
-      <c r="O38">
-        <f>SUM(N35:N38)</f>
-        <v>23.794496810637384</v>
-      </c>
-      <c r="Q38">
-        <f>SUM($N$34:N38)</f>
-        <v>30.725968616236841</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>31</v>
-      </c>
-      <c r="D39">
-        <v>36</v>
-      </c>
-      <c r="E39">
-        <v>42</v>
-      </c>
-      <c r="F39">
-        <v>57</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="9"/>
-        <v>5.1542263800937928E-3</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="8"/>
-        <v>1.4010639908773201E-2</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="8"/>
-        <v>4.6516962659485954E-2</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>0.93431817105164705</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="10"/>
-        <v>11.467938244531888</v>
-      </c>
-      <c r="N39" s="115">
-        <f t="shared" si="11"/>
-        <v>26.613722606422602</v>
-      </c>
-      <c r="Q39">
-        <f>SUM($N$34:N39)</f>
-        <v>57.33969122265944</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>42</v>
-      </c>
-      <c r="D40">
-        <v>53</v>
-      </c>
-      <c r="E40">
-        <v>55</v>
-      </c>
-      <c r="F40">
-        <v>40</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="9"/>
-        <v>4.1392319099229483E-2</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="8"/>
-        <v>0.37356623864343058</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="8"/>
-        <v>0.55729534101322264</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="8"/>
-        <v>2.7746101244117367E-2</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="10"/>
-        <v>11.584659944367623</v>
-      </c>
-      <c r="N40" s="115">
-        <f t="shared" si="11"/>
-        <v>0.58360849917867164</v>
-      </c>
-      <c r="Q40">
-        <f>SUM($N$34:N40)</f>
-        <v>57.923299721838113</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>80</v>
-      </c>
-      <c r="E41">
-        <v>70</v>
-      </c>
-      <c r="F41">
-        <v>42</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="9"/>
-        <v>2.1775635866085013E-3</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="8"/>
-        <v>0.87849185049918066</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="8"/>
-        <v>0.11889094340836263</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="8"/>
-        <v>4.3964250584820985E-4</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="10"/>
-        <v>16.1295486480068</v>
-      </c>
-      <c r="N41" s="115">
-        <f t="shared" si="11"/>
-        <v>22.724443518195887</v>
-      </c>
-      <c r="Q41">
-        <f>SUM($N$34:N41)</f>
-        <v>80.647743240034004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>30</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>47</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="9"/>
-        <v>6.1760467062892996E-8</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="8"/>
-        <v>4.5635155582387502E-7</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="8"/>
-        <v>0.99999763129116293</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>1.8505968140464941E-6</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="10"/>
-        <v>22.600002368711642</v>
-      </c>
-      <c r="N42" s="115">
-        <f t="shared" si="11"/>
-        <v>32.352268603524209</v>
-      </c>
-      <c r="O42">
-        <f>SUM(N39:N42)</f>
-        <v>82.274043227321371</v>
-      </c>
-      <c r="Q42">
-        <f>SUM($N$34:N42)</f>
-        <v>113.00001184355821</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7">
-        <v>10</v>
-      </c>
-      <c r="C43" s="7">
-        <v>30</v>
-      </c>
-      <c r="D43" s="7">
-        <v>11</v>
-      </c>
-      <c r="E43" s="7">
-        <v>3</v>
-      </c>
-      <c r="F43" s="7">
-        <v>4</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7">
-        <f t="shared" si="9"/>
-        <v>0.96861313999388043</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="8"/>
-        <v>2.1668623571687289E-2</v>
-      </c>
-      <c r="J43" s="7">
-        <f t="shared" si="8"/>
-        <v>4.3748196488605767E-3</v>
-      </c>
-      <c r="K43" s="7">
-        <f t="shared" si="8"/>
-        <v>5.3434167855716148E-3</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7">
-        <f t="shared" si="10"/>
-        <v>6.0318899831398376</v>
-      </c>
-      <c r="N43" s="8">
-        <f t="shared" si="11"/>
-        <v>-82.840561927859028</v>
-      </c>
-      <c r="O43" s="7"/>
-      <c r="Q43">
-        <f>SUM($N$34:N43)</f>
-        <v>30.159449915699184</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="125">
-        <v>11</v>
-      </c>
-      <c r="C44" s="126">
-        <v>30</v>
-      </c>
-      <c r="D44" s="126">
-        <v>0</v>
-      </c>
-      <c r="E44" s="126">
-        <v>0</v>
-      </c>
-      <c r="F44" s="126">
-        <v>0</v>
-      </c>
-      <c r="G44" s="127"/>
-      <c r="H44" s="127">
-        <f t="shared" si="9"/>
-        <v>0.9926186332070156</v>
-      </c>
-      <c r="I44" s="127">
-        <f t="shared" si="8"/>
-        <v>2.4604555976614757E-3</v>
-      </c>
-      <c r="J44" s="127">
-        <f t="shared" si="8"/>
-        <v>2.4604555976614757E-3</v>
-      </c>
-      <c r="K44" s="127">
-        <f t="shared" si="8"/>
-        <v>2.4604555976614757E-3</v>
-      </c>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127">
-        <f t="shared" si="10"/>
-        <v>6.007408743884282</v>
-      </c>
-      <c r="N44" s="128">
-        <f t="shared" si="11"/>
-        <v>-0.12240619627777782</v>
-      </c>
-      <c r="O44" s="113"/>
-      <c r="Q44" s="125">
-        <f>SUM($N$34:N44)</f>
-        <v>30.037043719421405</v>
-      </c>
-      <c r="R44" s="125">
-        <f>Q44</f>
-        <v>30.037043719421405</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <f>C44-1</f>
-        <v>29</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="9"/>
-        <v>0.99099908802515901</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="8"/>
-        <v>3.000303991613675E-3</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="8"/>
-        <v>3.000303991613675E-3</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="8"/>
-        <v>3.000303991613675E-3</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="10"/>
-        <v>5.8090416649097278</v>
-      </c>
-      <c r="N45" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.99183539487277095</v>
-      </c>
-      <c r="Q45">
-        <f>SUM($N$34:N45)</f>
-        <v>29.045208324548632</v>
-      </c>
-      <c r="R45">
-        <f>R44-(C44-C45)</f>
-        <v>29.037043719421405</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:C74" si="12">C45-1</f>
-        <v>28</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="9"/>
-        <v>0.98902812633117654</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="8"/>
-        <v>3.6572912229411551E-3</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="8"/>
-        <v>3.6572912229411551E-3</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="8"/>
-        <v>3.6572912229411551E-3</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="10"/>
-        <v>5.611032508601852</v>
-      </c>
-      <c r="N46" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.99004578153937928</v>
-      </c>
-      <c r="Q46">
-        <f>SUM($N$34:N46)</f>
-        <v>28.055162543009253</v>
-      </c>
-      <c r="R46">
-        <f t="shared" ref="R46:R74" si="13">R45-(C45-C46)</f>
-        <v>28.037043719421405</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="9"/>
-        <v>0.98663139828733637</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="8"/>
-        <v>4.4562005708878704E-3</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="8"/>
-        <v>4.4562005708878704E-3</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="8"/>
-        <v>4.4562005708878704E-3</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="10"/>
-        <v>5.4134587659500593</v>
-      </c>
-      <c r="N47" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.98786871325896364</v>
-      </c>
-      <c r="Q47">
-        <f>SUM($N$34:N47)</f>
-        <v>27.067293829750291</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="13"/>
-        <v>27.037043719421405</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="9"/>
-        <v>0.98371974004618357</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="8"/>
-        <v>5.426753317938811E-3</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="8"/>
-        <v>5.426753317938811E-3</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="8"/>
-        <v>5.426753317938811E-3</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="10"/>
-        <v>5.2164142395241928</v>
-      </c>
-      <c r="N48" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.98522263212933225</v>
-      </c>
-      <c r="Q48">
-        <f>SUM($N$34:N48)</f>
-        <v>26.082071197620959</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="13"/>
-        <v>26.037043719421405</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="9"/>
-        <v>0.98018666265349097</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="8"/>
-        <v>6.6044457821696888E-3</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="8"/>
-        <v>6.6044457821696888E-3</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="8"/>
-        <v>6.6044457821696888E-3</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="10"/>
-        <v>5.020012253359627</v>
-      </c>
-      <c r="N49" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.98200993082282917</v>
-      </c>
-      <c r="Q49">
-        <f>SUM($N$34:N49)</f>
-        <v>25.100061266798129</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="13"/>
-        <v>25.037043719421405</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="9"/>
-        <v>0.97590563055056345</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="9"/>
-        <v>8.0314564831455316E-3</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="9"/>
-        <v>8.0314564831455316E-3</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="9"/>
-        <v>8.0314564831455316E-3</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="10"/>
-        <v>4.8243893872534933</v>
-      </c>
-      <c r="N50" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.97811433053066832</v>
-      </c>
-      <c r="Q50">
-        <f>SUM($N$34:N50)</f>
-        <v>24.121946936267459</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="13"/>
-        <v>24.037043719421405</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51:K66" si="14">EXP(C51/$G$3)/SUM(EXP($C51/$G$3),EXP($D51/$G$3),EXP($E51/$G$3),EXP($F51/$G$3))</f>
-        <v>0.9707272280523237</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="14"/>
-        <v>9.7575906492254252E-3</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="14"/>
-        <v>9.7575906492254252E-3</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="14"/>
-        <v>9.7575906492254252E-3</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="10"/>
-        <v>4.6297097687425195</v>
-      </c>
-      <c r="N51" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.97339809255486909</v>
-      </c>
-      <c r="Q51">
-        <f>SUM($N$34:N51)</f>
-        <v>23.148548843712589</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="13"/>
-        <v>23.037043719421405</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="14"/>
-        <v>0.96447638671543401</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="14"/>
-        <v>1.1841204428188664E-2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="14"/>
-        <v>1.1841204428188664E-2</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="14"/>
-        <v>1.1841204428188664E-2</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="10"/>
-        <v>4.4361699293461783</v>
-      </c>
-      <c r="N52" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.96769919698170614</v>
-      </c>
-      <c r="Q52">
-        <f>SUM($N$34:N52)</f>
-        <v>22.180849646730884</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="13"/>
-        <v>22.037043719421405</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="14"/>
-        <v>0.95694995051126786</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="14"/>
-        <v>1.4350016496244053E-2</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="14"/>
-        <v>1.4350016496244053E-2</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="14"/>
-        <v>1.4350016496244053E-2</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="10"/>
-        <v>4.2440041872131218</v>
-      </c>
-      <c r="N53" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.96082871066528241</v>
-      </c>
-      <c r="Q53">
-        <f>SUM($N$34:N53)</f>
-        <v>21.220020936065602</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="13"/>
-        <v>21.037043719421405</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="14"/>
-        <v>0.94791499382751565</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="14"/>
-        <v>1.7361668724161467E-2</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="14"/>
-        <v>1.7361668724161467E-2</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="14"/>
-        <v>1.7361668724161467E-2</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="10"/>
-        <v>4.0534904497059339</v>
-      </c>
-      <c r="N54" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.9525686875359396</v>
-      </c>
-      <c r="Q54">
-        <f>SUM($N$34:N54)</f>
-        <v>20.267452248529661</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="13"/>
-        <v>20.037043719421405</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="14"/>
-        <v>0.93710847997031765</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="14"/>
-        <v>2.0963840009894107E-2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="14"/>
-        <v>2.0963840009894107E-2</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="14"/>
-        <v>2.0963840009894107E-2</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="10"/>
-        <v>3.8649562297306539</v>
-      </c>
-      <c r="N55" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.94267109987639985</v>
-      </c>
-      <c r="Q55">
-        <f>SUM($N$34:N55)</f>
-        <v>19.324781148653262</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="13"/>
-        <v>19.037043719421405</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="14"/>
-        <v>0.92423904645882615</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="14"/>
-        <v>2.5253651180391298E-2</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="14"/>
-        <v>2.5253651180391298E-2</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="14"/>
-        <v>2.5253651180391298E-2</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="10"/>
-        <v>3.6787845325108988</v>
-      </c>
-      <c r="N56" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.93085848609877564</v>
-      </c>
-      <c r="Q56">
-        <f>SUM($N$34:N56)</f>
-        <v>18.393922662554488</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="13"/>
-        <v>18.037043719421405</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="14"/>
-        <v>0.90899190344385294</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="14"/>
-        <v>3.0336032185382365E-2</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="14"/>
-        <v>3.0336032185382365E-2</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="14"/>
-        <v>3.0336032185382365E-2</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="10"/>
-        <v>3.4954190919467987</v>
-      </c>
-      <c r="N57" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.91682720282050045</v>
-      </c>
-      <c r="Q57">
-        <f>SUM($N$34:N57)</f>
-        <v>17.477095459733988</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="13"/>
-        <v>17.037043719421405</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="14"/>
-        <v>0.89103798384955657</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="14"/>
-        <v>3.6320672050147801E-2</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="14"/>
-        <v>3.6320672050147801E-2</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="14"/>
-        <v>3.6320672050147801E-2</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="10"/>
-        <v>3.3153682218368692</v>
-      </c>
-      <c r="N58" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.90025435054964742</v>
-      </c>
-      <c r="Q58">
-        <f>SUM($N$34:N58)</f>
-        <v>16.57684110918434</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="13"/>
-        <v>16.037043719421405</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>26</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="14"/>
-        <v>0.87004850656140775</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="14"/>
-        <v>4.3317164479530733E-2</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="14"/>
-        <v>4.3317164479530733E-2</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="14"/>
-        <v>4.3317164479530733E-2</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="10"/>
-        <v>3.1392063142194564</v>
-      </c>
-      <c r="N59" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.88080953808706397</v>
-      </c>
-      <c r="Q59">
-        <f>SUM($N$34:N59)</f>
-        <v>15.696031571097276</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="13"/>
-        <v>15.037043719421405</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="14"/>
-        <v>0.84571589109763279</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="14"/>
-        <v>5.1428036300789071E-2</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="14"/>
-        <v>5.1428036300789071E-2</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="14"/>
-        <v>5.1428036300789071E-2</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="10"/>
-        <v>2.9675718019038646</v>
-      </c>
-      <c r="N60" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.85817256157795896</v>
-      </c>
-      <c r="Q60">
-        <f>SUM($N$34:N60)</f>
-        <v>14.837859009519317</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="13"/>
-        <v>14.037043719421405</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>28</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="14"/>
-        <v>0.81778135720927791</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="14"/>
-        <v>6.073954759690741E-2</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="14"/>
-        <v>6.073954759690741E-2</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="14"/>
-        <v>6.073954759690741E-2</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="10"/>
-        <v>2.8011602675827989</v>
-      </c>
-      <c r="N61" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.83205767160532851</v>
-      </c>
-      <c r="Q61">
-        <f>SUM($N$34:N61)</f>
-        <v>14.005801337913988</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="13"/>
-        <v>13.037043719421405</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>29</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="14"/>
-        <v>0.78606843994764464</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="14"/>
-        <v>7.1310520017451792E-2</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="14"/>
-        <v>7.1310520017451792E-2</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="14"/>
-        <v>7.1310520017451792E-2</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="10"/>
-        <v>2.6407114166188883</v>
-      </c>
-      <c r="N62" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.80224425481955297</v>
-      </c>
-      <c r="Q62">
-        <f>SUM($N$34:N62)</f>
-        <v>13.203557083094434</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="13"/>
-        <v>12.037043719421405</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>30</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="14"/>
-        <v>0.75052003058947292</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="14"/>
-        <v>8.3159989803509027E-2</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="14"/>
-        <v>8.3159989803509027E-2</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="14"/>
-        <v>8.3159989803509027E-2</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="10"/>
-        <v>2.486988938605259</v>
-      </c>
-      <c r="N63" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.7686123900681463</v>
-      </c>
-      <c r="Q63">
-        <f>SUM($N$34:N63)</f>
-        <v>12.434944693026289</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="13"/>
-        <v>11.037043719421405</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>31</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="14"/>
-        <v>0.71123459422759383</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="14"/>
-        <v>9.6255135257468719E-2</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="14"/>
-        <v>9.6255135257468719E-2</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="14"/>
-        <v>9.6255135257468719E-2</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="10"/>
-        <v>2.3407529539131313</v>
-      </c>
-      <c r="N64" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.73117992346063865</v>
-      </c>
-      <c r="Q64">
-        <f>SUM($N$34:N64)</f>
-        <v>11.70376476956565</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="13"/>
-        <v>10.037043719421405</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>32</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="14"/>
-        <v>0.66849537379248503</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="14"/>
-        <v>0.11050154206917169</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="14"/>
-        <v>0.11050154206917169</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="14"/>
-        <v>0.11050154206917169</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="10"/>
-        <v>2.2027258027445855</v>
-      </c>
-      <c r="N65" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.69013575584272902</v>
-      </c>
-      <c r="Q65">
-        <f>SUM($N$34:N65)</f>
-        <v>11.013629013722921</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
-        <v>9.0370437194214048</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>33</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="14"/>
-        <v>0.62278539305362235</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="14"/>
-        <v>0.12573820231545921</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="14"/>
-        <v>0.12573820231545921</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="14"/>
-        <v>0.12573820231545921</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="10"/>
-        <v>2.0735532929684619</v>
-      </c>
-      <c r="N66" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.645862548880618</v>
-      </c>
-      <c r="Q66">
-        <f>SUM($N$34:N66)</f>
-        <v>10.367766464842303</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="13"/>
-        <v>8.0370437194214048</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>34</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:K74" si="15">EXP(C67/$G$3)/SUM(EXP($C67/$G$3),EXP($D67/$G$3),EXP($E67/$G$3),EXP($F67/$G$3))</f>
-        <v>0.5747817192853143</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="15"/>
-        <v>0.14173942690489524</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="15"/>
-        <v>0.14173942690489524</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="15"/>
-        <v>0.14173942690489524</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="10"/>
-        <v>1.9537649288924173</v>
-      </c>
-      <c r="N67" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.59894182038022326</v>
-      </c>
-      <c r="Q67">
-        <f>SUM($N$34:N67)</f>
-        <v>9.7688246444620788</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="13"/>
-        <v>7.0370437194214048</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>35</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="15"/>
-        <v>0.52532523738484416</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="15"/>
-        <v>0.15822492087171863</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="15"/>
-        <v>0.15822492087171863</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="15"/>
-        <v>0.15822492087171863</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="10"/>
-        <v>1.8437377084206332</v>
-      </c>
-      <c r="N68" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.55013610235892019</v>
-      </c>
-      <c r="Q68">
-        <f>SUM($N$34:N68)</f>
-        <v>9.218688542103159</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="13"/>
-        <v>6.0370437194214048</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>36</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="15"/>
-        <v>0.4753668864186717</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="15"/>
-        <v>0.17487770452710946</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="15"/>
-        <v>0.17487770452710946</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="15"/>
-        <v>0.17487770452710946</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="10"/>
-        <v>1.743668380628679</v>
-      </c>
-      <c r="N69" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.50034663895977105</v>
-      </c>
-      <c r="Q69">
-        <f>SUM($N$34:N69)</f>
-        <v>8.7183419031433882</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="13"/>
-        <v>5.0370437194214048</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>37</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="15"/>
-        <v>0.42589675575166169</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="15"/>
-        <v>0.19136774808277945</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="15"/>
-        <v>0.19136774808277945</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="15"/>
-        <v>0.19136774808277945</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="10"/>
-        <v>1.6535583194765306</v>
-      </c>
-      <c r="N70" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.45055030576074184</v>
-      </c>
-      <c r="Q70">
-        <f>SUM($N$34:N70)</f>
-        <v>8.2677915973826472</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="13"/>
-        <v>4.0370437194214048</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>38</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="15"/>
-        <v>0.3778668414894607</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>0.20737771950351308</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="15"/>
-        <v>0.20737771950351308</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="15"/>
-        <v>0.20737771950351308</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="10"/>
-        <v>1.5732134166165241</v>
-      </c>
-      <c r="N71" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.40172451430003253</v>
-      </c>
-      <c r="Q71">
-        <f>SUM($N$34:N71)</f>
-        <v>7.8660670830826147</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="13"/>
-        <v>3.0370437194214048</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>39</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="15"/>
-        <v>0.33211997307567492</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>0.2226266756414417</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="15"/>
-        <v>0.2226266756414417</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="15"/>
-        <v>0.2226266756414417</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="10"/>
-        <v>1.5022590106563736</v>
-      </c>
-      <c r="N72" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.35477202980075284</v>
-      </c>
-      <c r="Q72">
-        <f>SUM($N$34:N72)</f>
-        <v>7.5112950532818621</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="13"/>
-        <v>2.0370437194214048</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="15"/>
-        <v>0.28933575594016492</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="15"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="15"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="15"/>
-        <v>0.23688808135327838</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="10"/>
-        <v>1.4401674799598645</v>
-      </c>
-      <c r="N73" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.31045765348254539</v>
-      </c>
-      <c r="Q73">
-        <f>SUM($N$34:N73)</f>
-        <v>7.2008373997993171</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="13"/>
-        <v>1.0370437194214048</v>
-      </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>41</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="15"/>
-        <v>0.25</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="10"/>
-        <v>1.3862943611198906</v>
-      </c>
-      <c r="N74" s="129">
-        <f t="shared" si="11"/>
-        <v>-0.26936559419986961</v>
-      </c>
-      <c r="Q74">
-        <f>SUM($N$34:N74)</f>
-        <v>6.9314718055994478</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="13"/>
-        <v>3.704371942140483E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" location="Example_7:_Rapidly-adjusted_.28micro.29payments_to_a_pre-determined_party"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>